--- a/src/utils/data/terms_data.xlsx
+++ b/src/utils/data/terms_data.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauth\OneDrive\Desktop\sql_assistant_v3\src\utils\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2E5B9E-532C-485D-A011-B364700F5B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E57E8B9-5F23-447F-8682-44A30FDA027A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="7992" windowWidth="23256" windowHeight="12456" xr2:uid="{5C924A35-3DA8-4BB0-97DA-79B54FEAE102}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{5C924A35-3DA8-4BB0-97DA-79B54FEAE102}"/>
   </bookViews>
   <sheets>
-    <sheet name="terms_definitions" sheetId="3" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="4" r:id="rId2"/>
+    <sheet name="examples_terms" sheetId="4" r:id="rId1"/>
+    <sheet name="terms_definitions" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">terms_definitions!$A$1:$F$109</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">terms_definitions!$A$1:$F$109</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="318">
   <si>
     <t>platform</t>
   </si>
@@ -723,6 +723,288 @@
   </si>
   <si>
     <t>Measurement system is a set of measurement units, meters and flow computers that is responsible for measuring variables such as temperature, pressure of fluids.</t>
+  </si>
+  <si>
+    <t>The human is asking for a list of measurement systems</t>
+  </si>
+  <si>
+    <t>The human is asking for a list of versions</t>
+  </si>
+  <si>
+    <t>The human is asking for a list of measurement systems.</t>
+  </si>
+  <si>
+    <t>The human is asking for a list of flow computers with their versions</t>
+  </si>
+  <si>
+    <t>The human is asking for information about the platforms in the database.</t>
+  </si>
+  <si>
+    <t>The human is asking for information about the active platforms in the database.</t>
+  </si>
+  <si>
+    <t>The human is asking for the number of equipments registered in the Cexis platform.</t>
+  </si>
+  <si>
+    <t>The human is asking for the number of equipments that use an orifice plate in their measurement systems.</t>
+  </si>
+  <si>
+    <t>The human is asking for the number of measurement systems in the Cexis installation.</t>
+  </si>
+  <si>
+    <t>The human is asking for the measurement system tag associated for the equipment with serial number SAP-494837.</t>
+  </si>
+  <si>
+    <t>The human is asking for the type of computer flow with the tag FQI-EMED-3138.03-057.</t>
+  </si>
+  <si>
+    <t>The human is asking for the revision number of the computer flow with the tag FQI-EMED-3138.03-057.</t>
+  </si>
+  <si>
+    <t>The human is asking about the quantity of F407 flow computers.</t>
+  </si>
+  <si>
+    <t>The human is asking for the number of measurement systems associated with the flow computer with the tag FQI-EMED-3135.01-067.</t>
+  </si>
+  <si>
+    <t>The human is asking if the gas being measured by the system with tag EMED-3135.01-067 is differential or linear.</t>
+  </si>
+  <si>
+    <t>The human is requesting a list of measurement systems with tags starting with 'EMED', along with the fluid type and quantity of meters for each system, as well as the associated flow computers.</t>
+  </si>
+  <si>
+    <t>The human is requesting a list of measurement systems with tags starting with 'EMED', along with the fluid type, quantity of meters, and associated flow computer and computer type.</t>
+  </si>
+  <si>
+    <t>The human is requesting a list of measurement systems with the tag 'EMED' that use Natural Gas as the fluid, have 1 meter each, and are associated with flow computers.</t>
+  </si>
+  <si>
+    <t>The human is asking how many measurement systems are capable of reading oleo.</t>
+  </si>
+  <si>
+    <t>The human is asking for a list of measurement systems that are capable of reading oleo.</t>
+  </si>
+  <si>
+    <t>The human is requesting a list of measurement systems that have at least one orifice plate in the Cexis platform.</t>
+  </si>
+  <si>
+    <t>The human is requesting the maximum temperature for the measurement system with the tag EMED-3138.12-050 for the month of March 2023.</t>
+  </si>
+  <si>
+    <t>The human is requesting the max static pressure for the system with tag EMED-3138.12-050 for March 2023.</t>
+  </si>
+  <si>
+    <t>The human is requesting the average static pressure for the system with tag EMED-3138.12-050 between March and August 2023.</t>
+  </si>
+  <si>
+    <t>The human is asking for information about what kind of data can be obtained from measurement systems.</t>
+  </si>
+  <si>
+    <t>The human is asking for the number of primary meters in the equipment.</t>
+  </si>
+  <si>
+    <t>The human is requesting information about the number of equipments belonging to the measurement system with the tag EMED-3138.11-128.</t>
+  </si>
+  <si>
+    <t>The human is asking for the equipment type of the primary meter located in the measurement system with tag EMED-3138.11-128.</t>
+  </si>
+  <si>
+    <t>The human is asking about the measurement systems that are capable of reading differential gas.</t>
+  </si>
+  <si>
+    <t>The human is asking for a list of measurement systems that have at least one orifice plate.</t>
+  </si>
+  <si>
+    <t>The human is requesting for the serial numbers of equipments located in the measurement system with the tag EMED-3138.03-057.</t>
+  </si>
+  <si>
+    <t>The human is asking for the tag name of a specific equipment with the serial number SAP-494837.</t>
+  </si>
+  <si>
+    <t>The human is asking for the number of meters that the flow computer with the tag FQI-EMED-3138.03-057 has.</t>
+  </si>
+  <si>
+    <t>The human is asking for the number of measurement systems that the computer with the tag FQI-EMED-3135.01-067 has.</t>
+  </si>
+  <si>
+    <t>The human is asking about the measurement systems associated with the flow computer with the tag FQI-EMED-3135.01-067.</t>
+  </si>
+  <si>
+    <t>The human is asking for the meters associated with the measurement system tagged as EMED-3138.11-128.</t>
+  </si>
+  <si>
+    <t>The human is asking for the fluid that the measurement system with tag EMED-3135.01-067 reads.</t>
+  </si>
+  <si>
+    <t>The human is asking for a list of measurement systems with the tag "EMED" and also wants to know the type of fluid that these measurement systems read.</t>
+  </si>
+  <si>
+    <t>The human is requesting a list of measurement systems with the tag 'EMED' and the corresponding fluid and quantity of meters for each system.</t>
+  </si>
+  <si>
+    <t>The human is asking for the number of primary meters equipments.</t>
+  </si>
+  <si>
+    <t>The human is asking for a list of primary meters equipment.</t>
+  </si>
+  <si>
+    <t>The human is requesting a list of measurement systems that are capable of reading differential gas fluid type.</t>
+  </si>
+  <si>
+    <t>The human is requesting a list of equipment that are primary meters in the Cexis installation.</t>
+  </si>
+  <si>
+    <t>The human is asking for the average static pressure of the EMED-3138.12-050 in August 2023.</t>
+  </si>
+  <si>
+    <t>The human is requesting fluid information from measurement system with tag FFAS-2121.</t>
+  </si>
+  <si>
+    <t>The human is requesting information from a specific measurement system.</t>
+  </si>
+  <si>
+    <t>The human is requesting information from a specific flow computer.</t>
+  </si>
+  <si>
+    <t>The human is asking for information about what kind of data can be provided from measurement systems.</t>
+  </si>
+  <si>
+    <t>The human is asking for the location of the measurement system with the tag EMED-3138.11-128.</t>
+  </si>
+  <si>
+    <t>The human is requesting information for the measurement system with tag EMED-3138.11-128.</t>
+  </si>
+  <si>
+    <t>The human is requesting information on variables from the measurement system EMED-3138.11-128.</t>
+  </si>
+  <si>
+    <t>The human is requesting information max value of static pressure and temperature for the measurement system EMED-3138.11-128 for the month of march.</t>
+  </si>
+  <si>
+    <t>The human is requesting information min value of static pressure and temperature for the measurement system EMED-3138.11-128 for the month of march.</t>
+  </si>
+  <si>
+    <t>user_request</t>
+  </si>
+  <si>
+    <t>terms</t>
+  </si>
+  <si>
+    <t>measurement systems</t>
+  </si>
+  <si>
+    <t>versions</t>
+  </si>
+  <si>
+    <t>flow computers, versions</t>
+  </si>
+  <si>
+    <t>equipments, cexis, platform</t>
+  </si>
+  <si>
+    <t>equipments, orifice plate, measurement systems</t>
+  </si>
+  <si>
+    <t>measurement systems, cexis, installation</t>
+  </si>
+  <si>
+    <t>computer flow, tag, EMED-3138.03-057</t>
+  </si>
+  <si>
+    <t>measurement system, equipment, SAP-494837</t>
+  </si>
+  <si>
+    <t>primary meters, equipment</t>
+  </si>
+  <si>
+    <t>computer flow, EMED-3138.03-057</t>
+  </si>
+  <si>
+    <t>f407, flow computers</t>
+  </si>
+  <si>
+    <t>measurement systems, flow computer, FQI-EMED-3135.01-067</t>
+  </si>
+  <si>
+    <t>gas, EMED-3135.01-067, differential, linear</t>
+  </si>
+  <si>
+    <t>measurement systems, EMED, fluid, meters, system, flow computers</t>
+  </si>
+  <si>
+    <t>measurement systems, EMED, fluid, meters, system, flow computers, computer type</t>
+  </si>
+  <si>
+    <t>measurement systems, EMED, Natural Gas, fluid, meter, flow computers</t>
+  </si>
+  <si>
+    <t>measurement systems, oleo</t>
+  </si>
+  <si>
+    <t>measurement systems, orifice plate, Cexis, platform</t>
+  </si>
+  <si>
+    <t>temperature, measurement system, EMED-3138.12-050</t>
+  </si>
+  <si>
+    <t>static pressure, system, EMED-3138.12-050</t>
+  </si>
+  <si>
+    <t>equipments, measurement system, EMED-3138.11-128</t>
+  </si>
+  <si>
+    <t>equipment type, primary meter, measurement system, EMED-3138.11-128</t>
+  </si>
+  <si>
+    <t>measurement systems, differential gas</t>
+  </si>
+  <si>
+    <t>measurement systems, orifice plate</t>
+  </si>
+  <si>
+    <t>equipments, measurement system, EMED-3138.03-057</t>
+  </si>
+  <si>
+    <t>equipment, SAP-494837</t>
+  </si>
+  <si>
+    <t>meters, flow computer, FQI-EMED-3138.03-057</t>
+  </si>
+  <si>
+    <t>measurement system, computer, FQI-EMED-3135.01-067</t>
+  </si>
+  <si>
+    <t>meters, measurement system, EMED-3138.11-128</t>
+  </si>
+  <si>
+    <t>measurement systems, EMED, fluid</t>
+  </si>
+  <si>
+    <t>measurement systems, EMED, fluid, meters, system</t>
+  </si>
+  <si>
+    <t>measurement systems, differential gas, fluid</t>
+  </si>
+  <si>
+    <t>equipment, primary meters, Cexis, installation</t>
+  </si>
+  <si>
+    <t>fluid, measurement system, EMED-3135.01-067</t>
+  </si>
+  <si>
+    <t>fluid, measurement system, FFAS-2121</t>
+  </si>
+  <si>
+    <t>location, measurement system, EMED-3138.11-128</t>
+  </si>
+  <si>
+    <t>variables, measurement system, EMED-3138.11-128</t>
+  </si>
+  <si>
+    <t>static pressure, temperature, measurement system, EMED-3138.12-050</t>
+  </si>
+  <si>
+    <t>When context is related to flow computer firmware, 'F407' could be the name of the flow computer firmware.</t>
   </si>
 </sst>
 </file>
@@ -797,7 +1079,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -848,6 +1130,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1183,18 +1468,479 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE99E511-614A-4F02-AA52-922C79BD5CC3}">
+  <dimension ref="A1:B55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="42.77734375" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" customWidth="1"/>
+    <col min="3" max="3" width="40.33203125" customWidth="1"/>
+    <col min="4" max="4" width="29.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B8" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B9" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B10" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B13" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B14" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B15" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B17" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B18" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B19" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B20" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B21" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B22" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B23" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B24" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B25" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="B26" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="B27" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="B28" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="B29" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="B30" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="B31" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="B32" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="B33" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="B34" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="B35" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="B36" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="B37" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="B38" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="B39" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="B40" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="B41" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="B42" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="B43" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="B44" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="B45" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B46" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B47" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B49" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B50" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B51" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B52" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B53" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B54" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B55" t="s">
+        <v>316</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{236B0FD0-4DA2-46CE-B290-2BD321B2358A}">
   <dimension ref="A1:F109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="34" defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.33203125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="35.88671875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="20" style="15" customWidth="1"/>
     <col min="3" max="3" width="22.44140625" style="10" customWidth="1"/>
     <col min="4" max="4" width="37.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="39.21875" style="1" customWidth="1"/>
@@ -1826,9 +2572,8 @@
         <f>CONCATENATE("When talking about '",A33,"' as a flow computer firmware, replace with 'firmware' instead of ",A33,".")</f>
         <v>When talking about 'F407 flow computers' as a flow computer firmware, replace with 'firmware' instead of F407 flow computers.</v>
       </c>
-      <c r="F33" s="13" t="str">
-        <f>CONCATENATE("When context is related to flow computer firmware, '",A33,"' could be the name of the flow computer firmware.")</f>
-        <v>When context is related to flow computer firmware, 'F407 flow computers' could be the name of the flow computer firmware.</v>
+      <c r="F33" s="13" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3432,22 +4177,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE99E511-614A-4F02-AA52-922C79BD5CC3}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="40.33203125" customWidth="1"/>
-    <col min="4" max="4" width="29.5546875" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/utils/data/terms_data.xlsx
+++ b/src/utils/data/terms_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauth\OneDrive\Desktop\sql_assistant_v3\src\utils\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E57E8B9-5F23-447F-8682-44A30FDA027A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1396379-221B-40C8-858C-7959CA31B297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{5C924A35-3DA8-4BB0-97DA-79B54FEAE102}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="316">
   <si>
     <t>platform</t>
   </si>
@@ -508,9 +508,6 @@
     <t>meter</t>
   </si>
   <si>
-    <t>Firmware is the version of the flow computer.</t>
-  </si>
-  <si>
     <t>Crude oil, petrol, water, vapour, gas, natural gas commonly refers to a fluid read by measurement system.</t>
   </si>
   <si>
@@ -601,16 +598,7 @@
     <t>If in the context of the sentence it does refer to a type of equipment, then the term Flow computer refers to equipment type.</t>
   </si>
   <si>
-    <t>When talking about equipment, it is referring to the measurement systems assigned to a registration label. There can be equipment types and equipment type classification in the equipments. It is like a plural designation for the combination of measurement systems, meters and flow computers.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Platform is a place where you can find meters, measurement systems, flow computers, clients, storages, equipments. </t>
-  </si>
-  <si>
-    <t>When talking about equipment types, it is referring to the type of the equipment, such as: flowmeter, orifice plate, termometer, RTD, valves, etc.</t>
-  </si>
-  <si>
-    <t>It is the classification between equipment types, such as primary meter, secondary meter, terciary meter, valves. Note that primary meter and the other classes are diferent from 'meter' definition.</t>
   </si>
   <si>
     <t>No replace term for this term.</t>
@@ -722,9 +710,6 @@
     <t>Fluid names and fluid status are in flu_tipo_fluido table.</t>
   </si>
   <si>
-    <t>Measurement system is a set of measurement units, meters and flow computers that is responsible for measuring variables such as temperature, pressure of fluids.</t>
-  </si>
-  <si>
     <t>The human is asking for a list of measurement systems</t>
   </si>
   <si>
@@ -1005,6 +990,15 @@
   </si>
   <si>
     <t>When context is related to flow computer firmware, 'F407' could be the name of the flow computer firmware.</t>
+  </si>
+  <si>
+    <t>Firmware is known as the version of the flow computer.</t>
+  </si>
+  <si>
+    <t>Measurement system is know as a set of measurement units, meters and flow computers that is responsible for measuring variables fluids.</t>
+  </si>
+  <si>
+    <t>The term 'equipment' is known as a formed with measurement systems, flow computers. This means that an equipment include a measurement system, a flow computer and meters. All working together results in a equipment.</t>
   </si>
 </sst>
 </file>
@@ -1471,61 +1465,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE99E511-614A-4F02-AA52-922C79BD5CC3}">
   <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="42.77734375" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
+    <col min="2" max="2" width="68.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.33203125" customWidth="1"/>
     <col min="4" max="4" width="29.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B4" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B5" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B6" t="s">
         <v>114</v>
@@ -1533,7 +1527,7 @@
     </row>
     <row r="7" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B7" t="s">
         <v>114</v>
@@ -1541,319 +1535,319 @@
     </row>
     <row r="8" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B8" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B9" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B10" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B11" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B12" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B13" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B14" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B15" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B16" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B17" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B18" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B19" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B20" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B21" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B22" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B23" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B24" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B25" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B26" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B27" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B28" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B29" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B30" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B31" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="18" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B32" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B33" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="18" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B34" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B35" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B36" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B37" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B38" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B39" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="18" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B40" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="18" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B41" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="18" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B42" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="18" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B43" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="18" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B44" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="18" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B45" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B46" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B47" t="s">
         <v>110</v>
@@ -1861,7 +1855,7 @@
     </row>
     <row r="48" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B48" t="s">
         <v>1</v>
@@ -1869,58 +1863,58 @@
     </row>
     <row r="49" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B49" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B50" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B51" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B52" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B53" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B54" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B55" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -1932,18 +1926,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{236B0FD0-4DA2-46CE-B290-2BD321B2358A}">
   <dimension ref="A1:F109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="34" defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" style="15" customWidth="1"/>
+    <col min="1" max="1" width="34.88671875" style="15" customWidth="1"/>
     <col min="2" max="2" width="20" style="15" customWidth="1"/>
     <col min="3" max="3" width="22.44140625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="39.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="39.77734375" style="1" customWidth="1"/>
     <col min="6" max="6" width="67.44140625" style="10" customWidth="1"/>
     <col min="7" max="16384" width="34" style="10"/>
   </cols>
@@ -1962,45 +1956,37 @@
         <v>150</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:6" s="12" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="3" spans="1:6" s="12" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>188</v>
-      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
@@ -2013,10 +1999,10 @@
         <v>60</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2030,15 +2016,15 @@
         <v>61</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>0</v>
@@ -2047,13 +2033,13 @@
         <v>61</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2067,10 +2053,10 @@
         <v>62</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>223</v>
+        <v>314</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2084,10 +2070,10 @@
         <v>63</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>153</v>
+        <v>313</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="12" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2114,10 +2100,10 @@
         <v>66</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>117</v>
@@ -2134,10 +2120,10 @@
         <v>67</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2151,10 +2137,10 @@
         <v>59</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F12" s="2"/>
     </row>
@@ -2169,13 +2155,13 @@
         <v>151</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2305,7 +2291,7 @@
         <v>59</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E20" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2447,7 +2433,7 @@
     </row>
     <row r="28" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>42</v>
@@ -2456,8 +2442,8 @@
         <v>58</v>
       </c>
       <c r="D28" s="3" t="str">
-        <f>CONCATENATE("The term '",A28,"' commonly refers to an equipment type classification.")</f>
-        <v>The term 'primary meter' commonly refers to an equipment type classification.</v>
+        <f>CONCATENATE("The term '",A28,"' commonly refers to an equipment type classification. Do not confuse with 'measurement system' this is different.")</f>
+        <v>The term 'primary meter' commonly refers to an equipment type classification. Do not confuse with 'measurement system' this is different.</v>
       </c>
       <c r="E28" s="2" t="str">
         <f>CONCATENATE("Look up the term '",A28,"' and replace with 'equipment type classificaton' instead.")</f>
@@ -2469,7 +2455,7 @@
     </row>
     <row r="29" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>42</v>
@@ -2478,8 +2464,8 @@
         <v>58</v>
       </c>
       <c r="D29" s="3" t="str">
-        <f t="shared" ref="D29:D32" si="2">CONCATENATE("The term '",A29,"' commonly refers to an equipment type classification.")</f>
-        <v>The term 'secondary meter' commonly refers to an equipment type classification.</v>
+        <f>CONCATENATE("The term '",A29,"' commonly refers to an equipment type classification. Do not confuse with 'measurement system' this is different.")</f>
+        <v>The term 'secondary meter' commonly refers to an equipment type classification. Do not confuse with 'measurement system' this is different.</v>
       </c>
       <c r="E29" s="2" t="str">
         <f>CONCATENATE("Look up the term '",A29,"' and replace with 'equipment type classificaton' instead.")</f>
@@ -2491,7 +2477,7 @@
     </row>
     <row r="30" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>42</v>
@@ -2500,8 +2486,8 @@
         <v>58</v>
       </c>
       <c r="D30" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>The term 'terciary meter' commonly refers to an equipment type classification.</v>
+        <f>CONCATENATE("The term '",A30,"' commonly refers to an equipment type classification. Do not confuse with 'measurement system' this is different.")</f>
+        <v>The term 'terciary meter' commonly refers to an equipment type classification. Do not confuse with 'measurement system' this is different.</v>
       </c>
       <c r="E30" s="2" t="str">
         <f>CONCATENATE("Look up the term '",A30,"' and replace with 'equipment type classificaton' instead.")</f>
@@ -2522,8 +2508,8 @@
         <v>58</v>
       </c>
       <c r="D31" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>The term 'accessories' commonly refers to an equipment type classification.</v>
+        <f>CONCATENATE("The term '",A31,"' commonly refers to an equipment type classification. Do not confuse with 'measurement system' this is different.")</f>
+        <v>The term 'accessories' commonly refers to an equipment type classification. Do not confuse with 'measurement system' this is different.</v>
       </c>
       <c r="E31" s="2" t="str">
         <f>CONCATENATE("Look up the term '",A31,"' and replace with 'equipment type classificaton' instead.")</f>
@@ -2544,8 +2530,8 @@
         <v>58</v>
       </c>
       <c r="D32" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>The term 'valves' commonly refers to an equipment type classification.</v>
+        <f>CONCATENATE("The term '",A32,"' commonly refers to an equipment type classification. Do not confuse with 'measurement system' this is different.")</f>
+        <v>The term 'valves' commonly refers to an equipment type classification. Do not confuse with 'measurement system' this is different.</v>
       </c>
       <c r="E32" s="2" t="str">
         <f>CONCATENATE("Look up the term '",A32,"' and replace with 'equipment type classificaton' instead.")</f>
@@ -2557,7 +2543,7 @@
     </row>
     <row r="33" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>120</v>
@@ -2566,14 +2552,14 @@
         <v>63</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E33" s="2" t="str">
         <f>CONCATENATE("When talking about '",A33,"' as a flow computer firmware, replace with 'firmware' instead of ",A33,".")</f>
         <v>When talking about 'F407 flow computers' as a flow computer firmware, replace with 'firmware' instead of F407 flow computers.</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2587,7 +2573,7 @@
         <v>63</v>
       </c>
       <c r="D34" s="3" t="str">
-        <f t="shared" ref="D34:D36" si="3">CONCATENATE("Terms related to '",A34,"' sometimes are names of flow computers firmwares/type")</f>
+        <f t="shared" ref="D34:D36" si="2">CONCATENATE("Terms related to '",A34,"' sometimes are names of flow computers firmwares/type")</f>
         <v>Terms related to 'F407' sometimes are names of flow computers firmwares/type</v>
       </c>
       <c r="E34" s="2" t="str">
@@ -2595,7 +2581,7 @@
         <v>When talking about 'F407' as a flow computer firmware, replace with 'firmware' instead of F407.</v>
       </c>
       <c r="F34" s="13" t="str">
-        <f t="shared" ref="F34:F37" si="4">CONCATENATE("When context is related to flow computer firmware, '",A34,"' could be the name of the flow computer firmware.")</f>
+        <f t="shared" ref="F34:F37" si="3">CONCATENATE("When context is related to flow computer firmware, '",A34,"' could be the name of the flow computer firmware.")</f>
         <v>When context is related to flow computer firmware, 'F407' could be the name of the flow computer firmware.</v>
       </c>
     </row>
@@ -2610,7 +2596,7 @@
         <v>63</v>
       </c>
       <c r="D35" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>Terms related to 'FB107' sometimes are names of flow computers firmwares/type</v>
       </c>
       <c r="E35" s="2" t="str">
@@ -2618,7 +2604,7 @@
         <v>When talking about 'FB107' as a flow computer firmware, replace with 'firmware' instead of FB107.</v>
       </c>
       <c r="F35" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>When context is related to flow computer firmware, 'FB107' could be the name of the flow computer firmware.</v>
       </c>
     </row>
@@ -2633,7 +2619,7 @@
         <v>63</v>
       </c>
       <c r="D36" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>Terms related to 'EMED-010' sometimes are names of flow computers firmwares/type</v>
       </c>
       <c r="E36" s="2" t="str">
@@ -2641,7 +2627,7 @@
         <v>When talking about 'EMED-010' as a flow computer firmware, replace with 'firmware' instead of EMED-010.</v>
       </c>
       <c r="F36" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>When context is related to flow computer firmware, 'EMED-010' could be the name of the flow computer firmware.</v>
       </c>
     </row>
@@ -2664,7 +2650,7 @@
         <v>When talking about 'Thermofischer' as a flow computer firmware, replace with 'firmware' instead of Thermofischer.</v>
       </c>
       <c r="F37" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>When context is related to flow computer firmware, 'Thermofischer' could be the name of the flow computer firmware.</v>
       </c>
     </row>
@@ -2702,15 +2688,15 @@
         <v>68</v>
       </c>
       <c r="D39" s="3" t="str">
-        <f t="shared" ref="D39:D42" si="5">CONCATENATE("Terms related to '",A39,"' sometimes are names of flow computers type.")</f>
+        <f t="shared" ref="D39:D42" si="4">CONCATENATE("Terms related to '",A39,"' sometimes are names of flow computers type.")</f>
         <v>Terms related to 'KHRONE' sometimes are names of flow computers type.</v>
       </c>
       <c r="E39" s="2" t="str">
-        <f t="shared" ref="E39:E42" si="6">CONCATENATE("When talking about '",A39,"' replace with 'flow computer type' instead of ",A39,".")</f>
+        <f t="shared" ref="E39:E42" si="5">CONCATENATE("When talking about '",A39,"' replace with 'flow computer type' instead of ",A39,".")</f>
         <v>When talking about 'KHRONE' replace with 'flow computer type' instead of KHRONE.</v>
       </c>
       <c r="F39" s="14" t="str">
-        <f t="shared" ref="F39:F41" si="7">CONCATENATE(A39," is a flow computer type name.")</f>
+        <f t="shared" ref="F39:F41" si="6">CONCATENATE(A39," is a flow computer type name.")</f>
         <v>KHRONE is a flow computer type name.</v>
       </c>
     </row>
@@ -2725,15 +2711,15 @@
         <v>68</v>
       </c>
       <c r="D40" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Terms related to 'S600' sometimes are names of flow computers type.</v>
+      </c>
+      <c r="E40" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Terms related to 'S600' sometimes are names of flow computers type.</v>
-      </c>
-      <c r="E40" s="2" t="str">
+        <v>When talking about 'S600' replace with 'flow computer type' instead of S600.</v>
+      </c>
+      <c r="F40" s="14" t="str">
         <f t="shared" si="6"/>
-        <v>When talking about 'S600' replace with 'flow computer type' instead of S600.</v>
-      </c>
-      <c r="F40" s="14" t="str">
-        <f t="shared" si="7"/>
         <v>S600 is a flow computer type name.</v>
       </c>
     </row>
@@ -2748,15 +2734,15 @@
         <v>68</v>
       </c>
       <c r="D41" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Terms related to 'FC302' sometimes are names of flow computers type.</v>
+      </c>
+      <c r="E41" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Terms related to 'FC302' sometimes are names of flow computers type.</v>
-      </c>
-      <c r="E41" s="2" t="str">
+        <v>When talking about 'FC302' replace with 'flow computer type' instead of FC302.</v>
+      </c>
+      <c r="F41" s="14" t="str">
         <f t="shared" si="6"/>
-        <v>When talking about 'FC302' replace with 'flow computer type' instead of FC302.</v>
-      </c>
-      <c r="F41" s="14" t="str">
-        <f t="shared" si="7"/>
         <v>FC302 is a flow computer type name.</v>
       </c>
     </row>
@@ -2771,11 +2757,11 @@
         <v>68</v>
       </c>
       <c r="D42" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Terms related to 'FLOWBOSS' sometimes are names of flow computers type.</v>
+      </c>
+      <c r="E42" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>Terms related to 'FLOWBOSS' sometimes are names of flow computers type.</v>
-      </c>
-      <c r="E42" s="2" t="str">
-        <f t="shared" si="6"/>
         <v>When talking about 'FLOWBOSS' replace with 'flow computer type' instead of FLOWBOSS.</v>
       </c>
       <c r="F42" s="13" t="str">
@@ -2798,11 +2784,11 @@
         <v>Terms related to 'F407' sometimes are names of flow computers firmware/type.</v>
       </c>
       <c r="E43" s="2" t="str">
-        <f t="shared" ref="E43:E45" si="8">CONCATENATE("When talking about '",A43,"' as a flow computer type replace with 'flow computer type' instead of ",A43,".")</f>
+        <f t="shared" ref="E43:E45" si="7">CONCATENATE("When talking about '",A43,"' as a flow computer type replace with 'flow computer type' instead of ",A43,".")</f>
         <v>When talking about 'F407' as a flow computer type replace with 'flow computer type' instead of F407.</v>
       </c>
       <c r="F43" s="13" t="str">
-        <f t="shared" ref="F43:F45" si="9">CONCATENATE("When context is related to flow computer types '",A43,"' could be the name of the flow computer type.")</f>
+        <f t="shared" ref="F43:F45" si="8">CONCATENATE("When context is related to flow computer types '",A43,"' could be the name of the flow computer type.")</f>
         <v>When context is related to flow computer types 'F407' could be the name of the flow computer type.</v>
       </c>
     </row>
@@ -2817,15 +2803,15 @@
         <v>68</v>
       </c>
       <c r="D44" s="3" t="str">
-        <f t="shared" ref="D44:D45" si="10">CONCATENATE("Terms related to '",A44,"' sometimes are names of flow computers firmware/type.")</f>
+        <f t="shared" ref="D44:D45" si="9">CONCATENATE("Terms related to '",A44,"' sometimes are names of flow computers firmware/type.")</f>
         <v>Terms related to 'F107' sometimes are names of flow computers firmware/type.</v>
       </c>
       <c r="E44" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>When talking about 'F107' as a flow computer type replace with 'flow computer type' instead of F107.</v>
+      </c>
+      <c r="F44" s="13" t="str">
         <f t="shared" si="8"/>
-        <v>When talking about 'F107' as a flow computer type replace with 'flow computer type' instead of F107.</v>
-      </c>
-      <c r="F44" s="13" t="str">
-        <f t="shared" si="9"/>
         <v>When context is related to flow computer types 'F107' could be the name of the flow computer type.</v>
       </c>
     </row>
@@ -2840,15 +2826,15 @@
         <v>68</v>
       </c>
       <c r="D45" s="3" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>Terms related to 'Thermofischer' sometimes are names of flow computers firmware/type.</v>
       </c>
       <c r="E45" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>When talking about 'Thermofischer' as a flow computer type replace with 'flow computer type' instead of Thermofischer.</v>
+      </c>
+      <c r="F45" s="13" t="str">
         <f t="shared" si="8"/>
-        <v>When talking about 'Thermofischer' as a flow computer type replace with 'flow computer type' instead of Thermofischer.</v>
-      </c>
-      <c r="F45" s="13" t="str">
-        <f t="shared" si="9"/>
         <v>When context is related to flow computer types 'Thermofischer' could be the name of the flow computer type.</v>
       </c>
     </row>
@@ -2863,7 +2849,7 @@
         <v>66</v>
       </c>
       <c r="D46" s="3" t="str">
-        <f t="shared" ref="D46:D49" si="11">CONCATENATE("The term '",A46,"' or similar, commonly refers to a fluid.")</f>
+        <f t="shared" ref="D46:D49" si="10">CONCATENATE("The term '",A46,"' or similar, commonly refers to a fluid.")</f>
         <v>The term 'natural gas' or similar, commonly refers to a fluid.</v>
       </c>
       <c r="E46" s="2" t="str">
@@ -2885,11 +2871,11 @@
         <v>66</v>
       </c>
       <c r="D47" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>The term 'petrol' or similar, commonly refers to a fluid.</v>
       </c>
       <c r="E47" s="2" t="str">
-        <f t="shared" ref="E47:E49" si="12">CONCATENATE("The term '",A47,"' or related can be replaced with 'fluid' instead.")</f>
+        <f t="shared" ref="E47:E49" si="11">CONCATENATE("The term '",A47,"' or related can be replaced with 'fluid' instead.")</f>
         <v>The term 'petrol' or related can be replaced with 'fluid' instead.</v>
       </c>
       <c r="F47" s="3" t="s">
@@ -2907,11 +2893,11 @@
         <v>66</v>
       </c>
       <c r="D48" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>The term 'water' or similar, commonly refers to a fluid.</v>
+      </c>
+      <c r="E48" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>The term 'water' or similar, commonly refers to a fluid.</v>
-      </c>
-      <c r="E48" s="2" t="str">
-        <f t="shared" si="12"/>
         <v>The term 'water' or related can be replaced with 'fluid' instead.</v>
       </c>
       <c r="F48" s="3" t="s">
@@ -2929,11 +2915,11 @@
         <v>66</v>
       </c>
       <c r="D49" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>The term 'vapour' or similar, commonly refers to a fluid.</v>
+      </c>
+      <c r="E49" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>The term 'vapour' or similar, commonly refers to a fluid.</v>
-      </c>
-      <c r="E49" s="2" t="str">
-        <f t="shared" si="12"/>
         <v>The term 'vapour' or related can be replaced with 'fluid' instead.</v>
       </c>
       <c r="F49" s="3" t="s">
@@ -2973,11 +2959,11 @@
         <v>61</v>
       </c>
       <c r="D51" s="3" t="str">
-        <f t="shared" ref="D51:D72" si="13">CONCATENATE("The term '",A51,"', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.")</f>
+        <f t="shared" ref="D51:D72" si="12">CONCATENATE("The term '",A51,"', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.")</f>
         <v>The term 'Campo dom João', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
       </c>
       <c r="E51" s="2" t="str">
-        <f t="shared" ref="E51:E72" si="14">CONCATENATE("The term '",A51,"' refers to a platform, use 'platform' instead of ",A51,".")</f>
+        <f t="shared" ref="E51:E72" si="13">CONCATENATE("The term '",A51,"' refers to a platform, use 'platform' instead of ",A51,".")</f>
         <v>The term 'Campo dom João' refers to a platform, use 'platform' instead of Campo dom João.</v>
       </c>
       <c r="F51" s="3" t="s">
@@ -2995,11 +2981,11 @@
         <v>61</v>
       </c>
       <c r="D52" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>The term 'Estação Marapé', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
+      </c>
+      <c r="E52" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>The term 'Estação Marapé', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
-      </c>
-      <c r="E52" s="2" t="str">
-        <f t="shared" si="14"/>
         <v>The term 'Estação Marapé' refers to a platform, use 'platform' instead of Estação Marapé.</v>
       </c>
       <c r="F52" s="3" t="s">
@@ -3017,11 +3003,11 @@
         <v>61</v>
       </c>
       <c r="D53" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>The term 'Ponto de Coleta do C-158', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
+      </c>
+      <c r="E53" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>The term 'Ponto de Coleta do C-158', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
-      </c>
-      <c r="E53" s="2" t="str">
-        <f t="shared" si="14"/>
         <v>The term 'Ponto de Coleta do C-158' refers to a platform, use 'platform' instead of Ponto de Coleta do C-158.</v>
       </c>
       <c r="F53" s="3" t="s">
@@ -3039,11 +3025,11 @@
         <v>61</v>
       </c>
       <c r="D54" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>The term 'Estação Dom João (antiga Est. “F”)', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
+      </c>
+      <c r="E54" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>The term 'Estação Dom João (antiga Est. “F”)', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
-      </c>
-      <c r="E54" s="2" t="str">
-        <f t="shared" si="14"/>
         <v>The term 'Estação Dom João (antiga Est. “F”)' refers to a platform, use 'platform' instead of Estação Dom João (antiga Est. “F”).</v>
       </c>
       <c r="F54" s="3" t="s">
@@ -3061,11 +3047,11 @@
         <v>61</v>
       </c>
       <c r="D55" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>The term 'Estação de gás de Aratu', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
+      </c>
+      <c r="E55" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>The term 'Estação de gás de Aratu', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
-      </c>
-      <c r="E55" s="2" t="str">
-        <f t="shared" si="14"/>
         <v>The term 'Estação de gás de Aratu' refers to a platform, use 'platform' instead of Estação de gás de Aratu.</v>
       </c>
       <c r="F55" s="3" t="s">
@@ -3083,11 +3069,11 @@
         <v>61</v>
       </c>
       <c r="D56" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>The term 'ECOMP Ferrolho', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
+      </c>
+      <c r="E56" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>The term 'ECOMP Ferrolho', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
-      </c>
-      <c r="E56" s="2" t="str">
-        <f t="shared" si="14"/>
         <v>The term 'ECOMP Ferrolho' refers to a platform, use 'platform' instead of ECOMP Ferrolho.</v>
       </c>
       <c r="F56" s="3" t="s">
@@ -3105,11 +3091,11 @@
         <v>61</v>
       </c>
       <c r="D57" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>The term 'Ponto de Coleta do HBV-1', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
+      </c>
+      <c r="E57" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>The term 'Ponto de Coleta do HBV-1', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
-      </c>
-      <c r="E57" s="2" t="str">
-        <f t="shared" si="14"/>
         <v>The term 'Ponto de Coleta do HBV-1' refers to a platform, use 'platform' instead of Ponto de Coleta do HBV-1.</v>
       </c>
       <c r="F57" s="3" t="s">
@@ -3127,11 +3113,11 @@
         <v>61</v>
       </c>
       <c r="D58" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>The term 'Ponto de Coleta do A-22', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
+      </c>
+      <c r="E58" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>The term 'Ponto de Coleta do A-22', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
-      </c>
-      <c r="E58" s="2" t="str">
-        <f t="shared" si="14"/>
         <v>The term 'Ponto de Coleta do A-22' refers to a platform, use 'platform' instead of Ponto de Coleta do A-22.</v>
       </c>
       <c r="F58" s="3" t="s">
@@ -3149,11 +3135,11 @@
         <v>61</v>
       </c>
       <c r="D59" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>The term 'Ponto de Coleta do MUI-15', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
+      </c>
+      <c r="E59" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>The term 'Ponto de Coleta do MUI-15', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
-      </c>
-      <c r="E59" s="2" t="str">
-        <f t="shared" si="14"/>
         <v>The term 'Ponto de Coleta do MUI-15' refers to a platform, use 'platform' instead of Ponto de Coleta do MUI-15.</v>
       </c>
       <c r="F59" s="3" t="s">
@@ -3171,11 +3157,11 @@
         <v>61</v>
       </c>
       <c r="D60" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>The term 'Estação Coletora Massuí', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
+      </c>
+      <c r="E60" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>The term 'Estação Coletora Massuí', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
-      </c>
-      <c r="E60" s="2" t="str">
-        <f t="shared" si="14"/>
         <v>The term 'Estação Coletora Massuí' refers to a platform, use 'platform' instead of Estação Coletora Massuí.</v>
       </c>
       <c r="F60" s="3" t="s">
@@ -3193,11 +3179,11 @@
         <v>61</v>
       </c>
       <c r="D61" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>The term 'Ponto de Coleta do MRB-1', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
+      </c>
+      <c r="E61" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>The term 'Ponto de Coleta do MRB-1', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
-      </c>
-      <c r="E61" s="2" t="str">
-        <f t="shared" si="14"/>
         <v>The term 'Ponto de Coleta do MRB-1' refers to a platform, use 'platform' instead of Ponto de Coleta do MRB-1.</v>
       </c>
       <c r="F61" s="3" t="s">
@@ -3215,11 +3201,11 @@
         <v>61</v>
       </c>
       <c r="D62" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>The term 'Estação Palmeira', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
+      </c>
+      <c r="E62" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>The term 'Estação Palmeira', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
-      </c>
-      <c r="E62" s="2" t="str">
-        <f t="shared" si="14"/>
         <v>The term 'Estação Palmeira' refers to a platform, use 'platform' instead of Estação Palmeira.</v>
       </c>
       <c r="F62" s="3" t="s">
@@ -3237,11 +3223,11 @@
         <v>61</v>
       </c>
       <c r="D63" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>The term 'Estação Pedra Branca', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
+      </c>
+      <c r="E63" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>The term 'Estação Pedra Branca', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
-      </c>
-      <c r="E63" s="2" t="str">
-        <f t="shared" si="14"/>
         <v>The term 'Estação Pedra Branca' refers to a platform, use 'platform' instead of Estação Pedra Branca.</v>
       </c>
       <c r="F63" s="3" t="s">
@@ -3259,11 +3245,11 @@
         <v>61</v>
       </c>
       <c r="D64" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>The term 'ECOMP Pitinga', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
+      </c>
+      <c r="E64" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>The term 'ECOMP Pitinga', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
-      </c>
-      <c r="E64" s="2" t="str">
-        <f t="shared" si="14"/>
         <v>The term 'ECOMP Pitinga' refers to a platform, use 'platform' instead of ECOMP Pitinga.</v>
       </c>
       <c r="F64" s="3" t="s">
@@ -3281,11 +3267,11 @@
         <v>61</v>
       </c>
       <c r="D65" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>The term 'Parque São Paulo', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
+      </c>
+      <c r="E65" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>The term 'Parque São Paulo', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
-      </c>
-      <c r="E65" s="2" t="str">
-        <f t="shared" si="14"/>
         <v>The term 'Parque São Paulo' refers to a platform, use 'platform' instead of Parque São Paulo.</v>
       </c>
       <c r="F65" s="3" t="s">
@@ -3303,11 +3289,11 @@
         <v>61</v>
       </c>
       <c r="D66" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>The term 'Estação São Paulinho', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
+      </c>
+      <c r="E66" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>The term 'Estação São Paulinho', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
-      </c>
-      <c r="E66" s="2" t="str">
-        <f t="shared" si="14"/>
         <v>The term 'Estação São Paulinho' refers to a platform, use 'platform' instead of Estação São Paulinho.</v>
       </c>
       <c r="F66" s="3" t="s">
@@ -3325,11 +3311,11 @@
         <v>61</v>
       </c>
       <c r="D67" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>The term 'São Domingos', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
+      </c>
+      <c r="E67" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>The term 'São Domingos', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
-      </c>
-      <c r="E67" s="2" t="str">
-        <f t="shared" si="14"/>
         <v>The term 'São Domingos' refers to a platform, use 'platform' instead of São Domingos.</v>
       </c>
       <c r="F67" s="3" t="s">
@@ -3351,7 +3337,7 @@
         <v>The term 'Ponto de Coleta do SC-3', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
       </c>
       <c r="E68" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>The term 'Ponto de Coleta do SC-3' refers to a platform, use 'platform' instead of Ponto de Coleta do SC-3.</v>
       </c>
       <c r="F68" s="3" t="s">
@@ -3369,11 +3355,11 @@
         <v>61</v>
       </c>
       <c r="D69" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>The term 'Estação Socorro', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
+      </c>
+      <c r="E69" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>The term 'Estação Socorro', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
-      </c>
-      <c r="E69" s="2" t="str">
-        <f t="shared" si="14"/>
         <v>The term 'Estação Socorro' refers to a platform, use 'platform' instead of Estação Socorro.</v>
       </c>
       <c r="F69" s="3" t="s">
@@ -3391,11 +3377,11 @@
         <v>61</v>
       </c>
       <c r="D70" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>The term 'Ponto de Coleta do SVE-1', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
+      </c>
+      <c r="E70" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>The term 'Ponto de Coleta do SVE-1', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
-      </c>
-      <c r="E70" s="2" t="str">
-        <f t="shared" si="14"/>
         <v>The term 'Ponto de Coleta do SVE-1' refers to a platform, use 'platform' instead of Ponto de Coleta do SVE-1.</v>
       </c>
       <c r="F70" s="3" t="s">
@@ -3413,11 +3399,11 @@
         <v>61</v>
       </c>
       <c r="D71" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>The term 'Estação de Compressores UPGN de Candeias', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
+      </c>
+      <c r="E71" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>The term 'Estação de Compressores UPGN de Candeias', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
-      </c>
-      <c r="E71" s="2" t="str">
-        <f t="shared" si="14"/>
         <v>The term 'Estação de Compressores UPGN de Candeias' refers to a platform, use 'platform' instead of Estação de Compressores UPGN de Candeias.</v>
       </c>
       <c r="F71" s="3" t="s">
@@ -3435,11 +3421,11 @@
         <v>61</v>
       </c>
       <c r="D72" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>The term 'UPGN de Candeias', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
+      </c>
+      <c r="E72" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>The term 'UPGN de Candeias', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
-      </c>
-      <c r="E72" s="2" t="str">
-        <f t="shared" si="14"/>
         <v>The term 'UPGN de Candeias' refers to a platform, use 'platform' instead of UPGN de Candeias.</v>
       </c>
       <c r="F72" s="3" t="s">
@@ -3461,11 +3447,11 @@
         <v>The term 'crude oil' or similar, commonly refers to a fluid.</v>
       </c>
       <c r="E73" s="2" t="str">
-        <f t="shared" ref="E73" si="15">CONCATENATE("The term '",A73,"' or related can be replaced with 'fluid' instead.")</f>
+        <f t="shared" ref="E73" si="14">CONCATENATE("The term '",A73,"' or related can be replaced with 'fluid' instead.")</f>
         <v>The term 'crude oil' or related can be replaced with 'fluid' instead.</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3501,11 +3487,11 @@
         <v>69</v>
       </c>
       <c r="D75" s="3" t="str">
-        <f t="shared" ref="D75:D78" si="16">CONCATENATE("The term '",A75,"' or similar refers to a measure type for measurement systems.")</f>
+        <f t="shared" ref="D75:D78" si="15">CONCATENATE("The term '",A75,"' or similar refers to a measure type for measurement systems.")</f>
         <v>The term 'Appropriation' or similar refers to a measure type for measurement systems.</v>
       </c>
       <c r="E75" s="2" t="str">
-        <f t="shared" ref="E75:E78" si="17">CONCATENATE("The term '",A75,"' or related refers to a measure type, use 'measure type' instead.")</f>
+        <f t="shared" ref="E75:E78" si="16">CONCATENATE("The term '",A75,"' or related refers to a measure type, use 'measure type' instead.")</f>
         <v>The term 'Appropriation' or related refers to a measure type, use 'measure type' instead.</v>
       </c>
       <c r="F75" s="3" t="s">
@@ -3523,11 +3509,11 @@
         <v>69</v>
       </c>
       <c r="D76" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>The term 'operational' or similar refers to a measure type for measurement systems.</v>
+      </c>
+      <c r="E76" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>The term 'operational' or similar refers to a measure type for measurement systems.</v>
-      </c>
-      <c r="E76" s="2" t="str">
-        <f t="shared" si="17"/>
         <v>The term 'operational' or related refers to a measure type, use 'measure type' instead.</v>
       </c>
       <c r="F76" s="3" t="s">
@@ -3545,11 +3531,11 @@
         <v>69</v>
       </c>
       <c r="D77" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>The term 'custody' or similar refers to a measure type for measurement systems.</v>
+      </c>
+      <c r="E77" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>The term 'custody' or similar refers to a measure type for measurement systems.</v>
-      </c>
-      <c r="E77" s="2" t="str">
-        <f t="shared" si="17"/>
         <v>The term 'custody' or related refers to a measure type, use 'measure type' instead.</v>
       </c>
       <c r="F77" s="3" t="s">
@@ -3567,11 +3553,11 @@
         <v>69</v>
       </c>
       <c r="D78" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>The term 'Production Wells' or similar refers to a measure type for measurement systems.</v>
+      </c>
+      <c r="E78" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>The term 'Production Wells' or similar refers to a measure type for measurement systems.</v>
-      </c>
-      <c r="E78" s="2" t="str">
-        <f t="shared" si="17"/>
         <v>The term 'Production Wells' or related refers to a measure type, use 'measure type' instead.</v>
       </c>
       <c r="F78" s="3" t="s">
@@ -3589,10 +3575,10 @@
         <v>64</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>106</v>
@@ -3653,7 +3639,7 @@
         <v>When talking about the term 'EMED...' or similar, it refers to the name/tag of the measurement system.</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F82" s="3"/>
     </row>
@@ -3672,7 +3658,7 @@
         <v>When talking about the term 'EMED...' or similar, it refers to the name of flow computer.</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F83" s="3"/>
     </row>
@@ -3691,7 +3677,7 @@
         <v>When talking about the term 'EST...' or similar, it refers to the name/tag of the measurement system.</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3709,7 +3695,7 @@
         <v>When talking about the term 'EST...' or similar, it refers to the name/tag of the measurement system.</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3727,7 +3713,7 @@
         <v>When talking about the term 'EST...' or similar, it refers to the name/tag of the measurement system.</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3745,7 +3731,7 @@
         <v>When talking about the term 'FQIT...' or similar, it refers to the name/tag of the measurement system.</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3763,7 +3749,7 @@
         <v>When talking about the term 'TANQ...' or similar, it refers to the name/tag of the measurement system.</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3781,7 +3767,7 @@
         <v>When talking about the term 'EST...' or similar, it refers to the name/tag of the measurement system.</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3799,7 +3785,7 @@
         <v>When talking about the term 'FE-EMED...' or similar, it refers to the name/tag of the measurement system.</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3817,7 +3803,7 @@
         <v>When talking about the term 'EST LIBTQ PAL...' or similar, it refers to the name/tag of the measurement system.</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3835,7 +3821,7 @@
         <v>When talking about the term 'EST...' or similar, it refers to the name/tag of the measurement system.</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3849,11 +3835,11 @@
         <v>62</v>
       </c>
       <c r="D93" s="3" t="str">
-        <f t="shared" ref="D93" si="18">CONCATENATE("When talking about the term 'TANQ...' or similar, it refers to the name/tag of the measurement system.")</f>
+        <f t="shared" ref="D93" si="17">CONCATENATE("When talking about the term 'TANQ...' or similar, it refers to the name/tag of the measurement system.")</f>
         <v>When talking about the term 'TANQ...' or similar, it refers to the name/tag of the measurement system.</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3867,10 +3853,10 @@
         <v>67</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3884,10 +3870,10 @@
         <v>67</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3901,10 +3887,10 @@
         <v>67</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3918,10 +3904,10 @@
         <v>67</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3935,15 +3921,15 @@
         <v>67</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B99" s="9" t="s">
         <v>110</v>
@@ -3952,18 +3938,18 @@
         <v>62</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B100" s="9" t="s">
         <v>110</v>
@@ -3972,18 +3958,18 @@
         <v>62</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B101" s="9" t="s">
         <v>110</v>
@@ -3992,18 +3978,18 @@
         <v>62</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B102" s="9" t="s">
         <v>110</v>
@@ -4012,18 +3998,18 @@
         <v>62</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B103" s="9" t="s">
         <v>110</v>
@@ -4032,13 +4018,13 @@
         <v>62</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -4052,18 +4038,18 @@
         <v>66</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B105" s="9" t="s">
         <v>2</v>
@@ -4080,12 +4066,12 @@
         <v>The term 'density' or related refers to a variable read in measurement system, replace with 'variable'.</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B106" s="9" t="s">
         <v>2</v>
@@ -4094,20 +4080,20 @@
         <v>64</v>
       </c>
       <c r="D106" s="1" t="str">
-        <f t="shared" ref="D106:D109" si="19">CONCATENATE("When talking about the term '",A106,"' or similar, this refers to a variable read in the measurement system.")</f>
+        <f t="shared" ref="D106:D109" si="18">CONCATENATE("When talking about the term '",A106,"' or similar, this refers to a variable read in the measurement system.")</f>
         <v>When talking about the term 'differential pressure' or similar, this refers to a variable read in the measurement system.</v>
       </c>
       <c r="E106" s="1" t="str">
-        <f t="shared" ref="E106:E109" si="20">CONCATENATE("The term '",A106,"' or related refers to a variable read in measurement system, replace with 'variable'.")</f>
+        <f t="shared" ref="E106:E109" si="19">CONCATENATE("The term '",A106,"' or related refers to a variable read in measurement system, replace with 'variable'.")</f>
         <v>The term 'differential pressure' or related refers to a variable read in measurement system, replace with 'variable'.</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B107" s="9" t="s">
         <v>2</v>
@@ -4116,20 +4102,20 @@
         <v>64</v>
       </c>
       <c r="D107" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>When talking about the term 'temperature' or similar, this refers to a variable read in the measurement system.</v>
+      </c>
+      <c r="E107" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>When talking about the term 'temperature' or similar, this refers to a variable read in the measurement system.</v>
-      </c>
-      <c r="E107" s="1" t="str">
-        <f t="shared" si="20"/>
         <v>The term 'temperature' or related refers to a variable read in measurement system, replace with 'variable'.</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B108" s="9" t="s">
         <v>2</v>
@@ -4138,20 +4124,20 @@
         <v>64</v>
       </c>
       <c r="D108" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>When talking about the term 'static pressure' or similar, this refers to a variable read in the measurement system.</v>
+      </c>
+      <c r="E108" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>When talking about the term 'static pressure' or similar, this refers to a variable read in the measurement system.</v>
-      </c>
-      <c r="E108" s="1" t="str">
-        <f t="shared" si="20"/>
         <v>The term 'static pressure' or related refers to a variable read in measurement system, replace with 'variable'.</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B109" s="9" t="s">
         <v>2</v>
@@ -4160,15 +4146,15 @@
         <v>64</v>
       </c>
       <c r="D109" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>When talking about the term 'viscosity' or similar, this refers to a variable read in the measurement system.</v>
+      </c>
+      <c r="E109" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>When talking about the term 'viscosity' or similar, this refers to a variable read in the measurement system.</v>
-      </c>
-      <c r="E109" s="1" t="str">
-        <f t="shared" si="20"/>
         <v>The term 'viscosity' or related refers to a variable read in measurement system, replace with 'variable'.</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/data/terms_data.xlsx
+++ b/src/utils/data/terms_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauth\OneDrive\Desktop\sql_assistant_v3\src\utils\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1396379-221B-40C8-858C-7959CA31B297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046E0571-A98D-41BF-99E7-C5169090E28B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{5C924A35-3DA8-4BB0-97DA-79B54FEAE102}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="321">
   <si>
     <t>platform</t>
   </si>
@@ -999,6 +999,21 @@
   </si>
   <si>
     <t>The term 'equipment' is known as a formed with measurement systems, flow computers. This means that an equipment include a measurement system, a flow computer and meters. All working together results in a equipment.</t>
+  </si>
+  <si>
+    <t>Use idVariable_fk=4 in the WHERE statement when refers to base density.</t>
+  </si>
+  <si>
+    <t>Use idVariable_fk=5 in the WHERE statement when refers to differential pressure.</t>
+  </si>
+  <si>
+    <t>Use idVariable_fk=6 in the WHERE statement when refers to temperature.</t>
+  </si>
+  <si>
+    <t>Use idVariable_fk=12 in the WHERE statement when refers to static pressure.</t>
+  </si>
+  <si>
+    <t>Use idVariable_fk=17 in the WHERE statement when refers to viscosity.</t>
   </si>
 </sst>
 </file>
@@ -1924,11 +1939,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{236B0FD0-4DA2-46CE-B290-2BD321B2358A}">
-  <dimension ref="A1:F109"/>
+  <dimension ref="A1:F114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3:D11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F115" sqref="F115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="34" defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1938,7 +1953,7 @@
     <col min="3" max="3" width="22.44140625" style="10" customWidth="1"/>
     <col min="4" max="4" width="49.88671875" style="1" customWidth="1"/>
     <col min="5" max="5" width="39.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="67.44140625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="97.21875" style="10" customWidth="1"/>
     <col min="7" max="16384" width="34" style="10"/>
   </cols>
   <sheetData>
@@ -4155,6 +4170,76 @@
       </c>
       <c r="F109" s="10" t="s">
         <v>216</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F110" s="10" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F111" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F112" s="10" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F113" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F114" s="10" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/data/terms_data.xlsx
+++ b/src/utils/data/terms_data.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauth\OneDrive\Desktop\sql_assistant_v3\src\utils\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046E0571-A98D-41BF-99E7-C5169090E28B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3AEB02-2338-42B2-94DB-A786B1A8D26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{5C924A35-3DA8-4BB0-97DA-79B54FEAE102}"/>
+    <workbookView xWindow="22932" yWindow="7992" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{5C924A35-3DA8-4BB0-97DA-79B54FEAE102}"/>
   </bookViews>
   <sheets>
     <sheet name="examples_terms" sheetId="4" r:id="rId1"/>
     <sheet name="terms_definitions" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">terms_definitions!$A$1:$F$109</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">terms_definitions!$A$1:$F$113</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="319">
   <si>
     <t>platform</t>
   </si>
@@ -373,9 +373,6 @@
     <t xml:space="preserve">flow computers </t>
   </si>
   <si>
-    <t>firmware flow computer version</t>
-  </si>
-  <si>
     <t>measurement system</t>
   </si>
   <si>
@@ -518,12 +515,6 @@
   </si>
   <si>
     <t>meta_terms_replacements</t>
-  </si>
-  <si>
-    <t>Terms related to 'F407' sometimes are names of flow computers firmwares/type</t>
-  </si>
-  <si>
-    <t>F407 flow computers</t>
   </si>
   <si>
     <t>system</t>
@@ -989,9 +980,6 @@
     <t>static pressure, temperature, measurement system, EMED-3138.12-050</t>
   </si>
   <si>
-    <t>When context is related to flow computer firmware, 'F407' could be the name of the flow computer firmware.</t>
-  </si>
-  <si>
     <t>Firmware is known as the version of the flow computer.</t>
   </si>
   <si>
@@ -1014,6 +1002,12 @@
   </si>
   <si>
     <t>Use idVariable_fk=17 in the WHERE statement when refers to viscosity.</t>
+  </si>
+  <si>
+    <t>firmware version</t>
+  </si>
+  <si>
+    <t>When talking about flow computers, use the same term 'Flow computer'.</t>
   </si>
 </sst>
 </file>
@@ -1494,383 +1488,383 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B8" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B9" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B10" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B11" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B12" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B13" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B14" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B15" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B16" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B17" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B18" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B19" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B20" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B21" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B22" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B23" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B24" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B25" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B26" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B27" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B28" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B29" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B30" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B31" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="18" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B32" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B33" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="18" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B34" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B35" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B36" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B37" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B38" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B39" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="18" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B40" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="18" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B41" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="18" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B42" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="18" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B43" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="18" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B44" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="18" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B45" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B46" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B48" t="s">
         <v>1</v>
@@ -1878,58 +1872,58 @@
     </row>
     <row r="49" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B49" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B50" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B51" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B52" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B53" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B54" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B55" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -1939,11 +1933,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{236B0FD0-4DA2-46CE-B290-2BD321B2358A}">
-  <dimension ref="A1:F114"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:F113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F115" sqref="F115"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="34" defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1959,27 +1954,27 @@
   <sheetData>
     <row r="1" spans="1:6" s="8" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="12" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="12" customFormat="1" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>42</v>
@@ -1990,9 +1985,9 @@
       <c r="D2" s="4"/>
       <c r="E2" s="17"/>
     </row>
-    <row r="3" spans="1:6" s="12" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="12" customFormat="1" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>43</v>
@@ -2003,26 +1998,26 @@
       <c r="D3" s="4"/>
       <c r="E3" s="17"/>
     </row>
-    <row r="4" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>60</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>0</v>
@@ -2031,15 +2026,15 @@
         <v>61</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>0</v>
@@ -2048,55 +2043,55 @@
         <v>61</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>109</v>
+        <v>317</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="12" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="12" customFormat="1" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>65</v>
@@ -2104,24 +2099,24 @@
       <c r="D9" s="4"/>
       <c r="E9" s="17"/>
     </row>
-    <row r="10" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2135,13 +2130,13 @@
         <v>67</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>45</v>
       </c>
@@ -2152,34 +2147,34 @@
         <v>59</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>46</v>
       </c>
@@ -2194,12 +2189,12 @@
         <v>The term 'flowmeter' commonly refers to an equipment type.</v>
       </c>
       <c r="E14" s="2" t="str">
-        <f>CONCATENATE("Look up the term '",A14,"' and replace with 'equipment type' instead.")</f>
-        <v>Look up the term 'flowmeter' and replace with 'equipment type' instead.</v>
+        <f>CONCATENATE("Look at the term '",A14,"' and replace with 'equipment type' instead.")</f>
+        <v>Look at the term 'flowmeter' and replace with 'equipment type' instead.</v>
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>47</v>
       </c>
@@ -2214,12 +2209,12 @@
         <v>The term 'orifice plate' commonly refers to an equipment type.</v>
       </c>
       <c r="E15" s="2" t="str">
-        <f>CONCATENATE("Look up the term '",A15,"' or similar term and replace with 'equipment type' instead.")</f>
-        <v>Look up the term 'orifice plate' or similar term and replace with 'equipment type' instead.</v>
+        <f>CONCATENATE("Look at the term '",A15,"' or similar term and replace with 'equipment type' instead.")</f>
+        <v>Look at the term 'orifice plate' or similar term and replace with 'equipment type' instead.</v>
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>48</v>
       </c>
@@ -2234,11 +2229,11 @@
         <v>The term 'portaplacas' commonly refers to an equipment type.</v>
       </c>
       <c r="E16" s="2" t="str">
-        <f t="shared" ref="E16:E27" si="1">CONCATENATE("Look up the term '",A16,"' or similar term and replace with 'equipment type' instead.")</f>
-        <v>Look up the term 'portaplacas' or similar term and replace with 'equipment type' instead.</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <f>CONCATENATE("Look at the term '",A16,"' or similar term and replace with 'equipment type' instead.")</f>
+        <v>Look at the term 'portaplacas' or similar term and replace with 'equipment type' instead.</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>49</v>
       </c>
@@ -2253,11 +2248,11 @@
         <v>The term 'conditioner' commonly refers to an equipment type.</v>
       </c>
       <c r="E17" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Look up the term 'conditioner' or similar term and replace with 'equipment type' instead.</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <f>CONCATENATE("Look at the term '",A17,"' or similar term and replace with 'equipment type' instead.")</f>
+        <v>Look at the term 'conditioner' or similar term and replace with 'equipment type' instead.</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>50</v>
       </c>
@@ -2272,11 +2267,11 @@
         <v>The term 'Analyzer' commonly refers to an equipment type.</v>
       </c>
       <c r="E18" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Look up the term 'Analyzer' or similar term and replace with 'equipment type' instead.</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <f>CONCATENATE("Look at the term '",A18,"' or similar term and replace with 'equipment type' instead.")</f>
+        <v>Look at the term 'Analyzer' or similar term and replace with 'equipment type' instead.</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>44</v>
       </c>
@@ -2291,11 +2286,11 @@
         <v>The term 'Cone Meter' commonly refers to an equipment type.</v>
       </c>
       <c r="E19" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Look up the term 'Cone Meter' or similar term and replace with 'equipment type' instead.</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <f>CONCATENATE("Look at the term '",A19,"' or similar term and replace with 'equipment type' instead.")</f>
+        <v>Look at the term 'Cone Meter' or similar term and replace with 'equipment type' instead.</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>1</v>
       </c>
@@ -2306,14 +2301,14 @@
         <v>59</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E20" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Look up the term 'flow computer' or similar term and replace with 'equipment type' instead.</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <f>CONCATENATE("Look at the term '",A20,"' or similar term and replace with 'equipment type' instead.")</f>
+        <v>Look at the term 'flow computer' or similar term and replace with 'equipment type' instead.</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>51</v>
       </c>
@@ -2328,11 +2323,11 @@
         <v>The term 'valves' commonly refers to an equipment type.</v>
       </c>
       <c r="E21" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Look up the term 'valves' or similar term and replace with 'equipment type' instead.</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <f>CONCATENATE("Look at the term '",A21,"' or similar term and replace with 'equipment type' instead.")</f>
+        <v>Look at the term 'valves' or similar term and replace with 'equipment type' instead.</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>52</v>
       </c>
@@ -2347,13 +2342,13 @@
         <v>The term 'termo cupla' commonly refers to an equipment type.</v>
       </c>
       <c r="E22" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Look up the term 'termo cupla' or similar term and replace with 'equipment type' instead.</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <f>CONCATENATE("Look at the term '",A22,"' or similar term and replace with 'equipment type' instead.")</f>
+        <v>Look at the term 'termo cupla' or similar term and replace with 'equipment type' instead.</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>43</v>
@@ -2366,11 +2361,11 @@
         <v>The term 'RTD' commonly refers to an equipment type.</v>
       </c>
       <c r="E23" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Look up the term 'RTD' or similar term and replace with 'equipment type' instead.</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <f>CONCATENATE("Look at the term '",A23,"' or similar term and replace with 'equipment type' instead.")</f>
+        <v>Look at the term 'RTD' or similar term and replace with 'equipment type' instead.</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>53</v>
       </c>
@@ -2385,11 +2380,11 @@
         <v>The term 'Chromatograph' commonly refers to an equipment type.</v>
       </c>
       <c r="E24" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Look up the term 'Chromatograph' or similar term and replace with 'equipment type' instead.</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <f>CONCATENATE("Look at the term '",A24,"' or similar term and replace with 'equipment type' instead.")</f>
+        <v>Look at the term 'Chromatograph' or similar term and replace with 'equipment type' instead.</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>54</v>
       </c>
@@ -2404,11 +2399,11 @@
         <v>The term 'tank' commonly refers to an equipment type.</v>
       </c>
       <c r="E25" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Look up the term 'tank' or similar term and replace with 'equipment type' instead.</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <f>CONCATENATE("Look at the term '",A25,"' or similar term and replace with 'equipment type' instead.")</f>
+        <v>Look at the term 'tank' or similar term and replace with 'equipment type' instead.</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>55</v>
       </c>
@@ -2423,11 +2418,11 @@
         <v>The term 'densimeter' commonly refers to an equipment type.</v>
       </c>
       <c r="E26" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Look up the term 'densimeter' or similar term and replace with 'equipment type' instead.</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <f>CONCATENATE("Look at the term '",A26,"' or similar term and replace with 'equipment type' instead.")</f>
+        <v>Look at the term 'densimeter' or similar term and replace with 'equipment type' instead.</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>56</v>
       </c>
@@ -2442,13 +2437,13 @@
         <v>The term 'termometer' commonly refers to an equipment type.</v>
       </c>
       <c r="E27" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Look up the term 'termometer' or similar term and replace with 'equipment type' instead.</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <f>CONCATENATE("Look at the term '",A27,"' or similar term and replace with 'equipment type' instead.")</f>
+        <v>Look at the term 'termometer' or similar term and replace with 'equipment type' instead.</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>42</v>
@@ -2461,16 +2456,16 @@
         <v>The term 'primary meter' commonly refers to an equipment type classification. Do not confuse with 'measurement system' this is different.</v>
       </c>
       <c r="E28" s="2" t="str">
-        <f>CONCATENATE("Look up the term '",A28,"' and replace with 'equipment type classificaton' instead.")</f>
-        <v>Look up the term 'primary meter' and replace with 'equipment type classificaton' instead.</v>
+        <f>CONCATENATE("Look at the term '",A28,"' and replace with 'equipment type classificaton' instead.")</f>
+        <v>Look at the term 'primary meter' and replace with 'equipment type classificaton' instead.</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>42</v>
@@ -2483,16 +2478,16 @@
         <v>The term 'secondary meter' commonly refers to an equipment type classification. Do not confuse with 'measurement system' this is different.</v>
       </c>
       <c r="E29" s="2" t="str">
-        <f>CONCATENATE("Look up the term '",A29,"' and replace with 'equipment type classificaton' instead.")</f>
-        <v>Look up the term 'secondary meter' and replace with 'equipment type classificaton' instead.</v>
+        <f>CONCATENATE("Look at the term '",A29,"' and replace with 'equipment type classificaton' instead.")</f>
+        <v>Look at the term 'secondary meter' and replace with 'equipment type classificaton' instead.</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>42</v>
@@ -2505,16 +2500,16 @@
         <v>The term 'terciary meter' commonly refers to an equipment type classification. Do not confuse with 'measurement system' this is different.</v>
       </c>
       <c r="E30" s="2" t="str">
-        <f>CONCATENATE("Look up the term '",A30,"' and replace with 'equipment type classificaton' instead.")</f>
-        <v>Look up the term 'terciary meter' and replace with 'equipment type classificaton' instead.</v>
+        <f>CONCATENATE("Look at the term '",A30,"' and replace with 'equipment type classificaton' instead.")</f>
+        <v>Look at the term 'terciary meter' and replace with 'equipment type classificaton' instead.</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>42</v>
@@ -2527,14 +2522,14 @@
         <v>The term 'accessories' commonly refers to an equipment type classification. Do not confuse with 'measurement system' this is different.</v>
       </c>
       <c r="E31" s="2" t="str">
-        <f>CONCATENATE("Look up the term '",A31,"' and replace with 'equipment type classificaton' instead.")</f>
-        <v>Look up the term 'accessories' and replace with 'equipment type classificaton' instead.</v>
+        <f>CONCATENATE("Look at the term '",A31,"' and replace with 'equipment type classificaton' instead.")</f>
+        <v>Look at the term 'accessories' and replace with 'equipment type classificaton' instead.</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>51</v>
       </c>
@@ -2549,129 +2544,131 @@
         <v>The term 'valves' commonly refers to an equipment type classification. Do not confuse with 'measurement system' this is different.</v>
       </c>
       <c r="E32" s="2" t="str">
-        <f>CONCATENATE("Look up the term '",A32,"' and replace with 'equipment type classificaton' instead.")</f>
-        <v>Look up the term 'valves' and replace with 'equipment type classificaton' instead.</v>
+        <f>CONCATENATE("Look at the term '",A32,"' and replace with 'equipment type classificaton' instead.")</f>
+        <v>Look at the term 'valves' and replace with 'equipment type classificaton' instead.</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>158</v>
+        <v>9</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>157</v>
+      <c r="D33" s="3" t="str">
+        <f t="shared" ref="D33:D35" si="1">CONCATENATE("Terms related to '",A33,"' sometimes are names of flow computers firmwares/type")</f>
+        <v>Terms related to 'F407' sometimes are names of flow computers firmwares/type</v>
       </c>
       <c r="E33" s="2" t="str">
         <f>CONCATENATE("When talking about '",A33,"' as a flow computer firmware, replace with 'firmware' instead of ",A33,".")</f>
-        <v>When talking about 'F407 flow computers' as a flow computer firmware, replace with 'firmware' instead of F407 flow computers.</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>When talking about 'F407' as a flow computer firmware, replace with 'firmware' instead of F407.</v>
+      </c>
+      <c r="F33" s="13" t="str">
+        <f t="shared" ref="F33:F36" si="2">CONCATENATE("When context is related to flow computer firmware, '",A33,"' could be the name of the flow computer firmware.")</f>
+        <v>When context is related to flow computer firmware, 'F407' could be the name of the flow computer firmware.</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D34" s="3" t="str">
-        <f t="shared" ref="D34:D36" si="2">CONCATENATE("Terms related to '",A34,"' sometimes are names of flow computers firmwares/type")</f>
-        <v>Terms related to 'F407' sometimes are names of flow computers firmwares/type</v>
+        <f t="shared" si="1"/>
+        <v>Terms related to 'FB107' sometimes are names of flow computers firmwares/type</v>
       </c>
       <c r="E34" s="2" t="str">
         <f>CONCATENATE("When talking about '",A34,"' as a flow computer firmware, replace with 'firmware' instead of ",A34,".")</f>
-        <v>When talking about 'F407' as a flow computer firmware, replace with 'firmware' instead of F407.</v>
+        <v>When talking about 'FB107' as a flow computer firmware, replace with 'firmware' instead of FB107.</v>
       </c>
       <c r="F34" s="13" t="str">
-        <f t="shared" ref="F34:F37" si="3">CONCATENATE("When context is related to flow computer firmware, '",A34,"' could be the name of the flow computer firmware.")</f>
-        <v>When context is related to flow computer firmware, 'F407' could be the name of the flow computer firmware.</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>When context is related to flow computer firmware, 'FB107' could be the name of the flow computer firmware.</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D35" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>Terms related to 'FB107' sometimes are names of flow computers firmwares/type</v>
+        <f t="shared" si="1"/>
+        <v>Terms related to 'EMED-010' sometimes are names of flow computers firmwares/type</v>
       </c>
       <c r="E35" s="2" t="str">
         <f>CONCATENATE("When talking about '",A35,"' as a flow computer firmware, replace with 'firmware' instead of ",A35,".")</f>
-        <v>When talking about 'FB107' as a flow computer firmware, replace with 'firmware' instead of FB107.</v>
+        <v>When talking about 'EMED-010' as a flow computer firmware, replace with 'firmware' instead of EMED-010.</v>
       </c>
       <c r="F35" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>When context is related to flow computer firmware, 'FB107' could be the name of the flow computer firmware.</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>When context is related to flow computer firmware, 'EMED-010' could be the name of the flow computer firmware.</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D36" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>Terms related to 'EMED-010' sometimes are names of flow computers firmwares/type</v>
+        <f>CONCATENATE("Terms related to '",A36,"' sometimes are names of flow computers firmwares/type")</f>
+        <v>Terms related to 'Thermofischer' sometimes are names of flow computers firmwares/type</v>
       </c>
       <c r="E36" s="2" t="str">
         <f>CONCATENATE("When talking about '",A36,"' as a flow computer firmware, replace with 'firmware' instead of ",A36,".")</f>
-        <v>When talking about 'EMED-010' as a flow computer firmware, replace with 'firmware' instead of EMED-010.</v>
+        <v>When talking about 'Thermofischer' as a flow computer firmware, replace with 'firmware' instead of Thermofischer.</v>
       </c>
       <c r="F36" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>When context is related to flow computer firmware, 'EMED-010' could be the name of the flow computer firmware.</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>When context is related to flow computer firmware, 'Thermofischer' could be the name of the flow computer firmware.</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D37" s="3" t="str">
-        <f>CONCATENATE("Terms related to '",A37,"' sometimes are names of flow computers firmwares/type")</f>
-        <v>Terms related to 'Thermofischer' sometimes are names of flow computers firmwares/type</v>
+        <f>CONCATENATE("Terms related to '",A37,"' sometimes are names of flow computers type.")</f>
+        <v>Terms related to 'OMNI' sometimes are names of flow computers type.</v>
       </c>
       <c r="E37" s="2" t="str">
-        <f>CONCATENATE("When talking about '",A37,"' as a flow computer firmware, replace with 'firmware' instead of ",A37,".")</f>
-        <v>When talking about 'Thermofischer' as a flow computer firmware, replace with 'firmware' instead of Thermofischer.</v>
-      </c>
-      <c r="F37" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v>When context is related to flow computer firmware, 'Thermofischer' could be the name of the flow computer firmware.</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <f>CONCATENATE("When talking about '",A37,"' replace with 'flow computer type' instead of ",A37,".")</f>
+        <v>When talking about 'OMNI' replace with 'flow computer type' instead of OMNI.</v>
+      </c>
+      <c r="F37" s="14" t="str">
+        <f>CONCATENATE(A37," is a flow computer type name.")</f>
+        <v>OMNI is a flow computer type name.</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>3</v>
@@ -2680,21 +2677,21 @@
         <v>68</v>
       </c>
       <c r="D38" s="3" t="str">
-        <f>CONCATENATE("Terms related to '",A38,"' sometimes are names of flow computers type.")</f>
-        <v>Terms related to 'OMNI' sometimes are names of flow computers type.</v>
+        <f t="shared" ref="D38:D41" si="3">CONCATENATE("Terms related to '",A38,"' sometimes are names of flow computers type.")</f>
+        <v>Terms related to 'KHRONE' sometimes are names of flow computers type.</v>
       </c>
       <c r="E38" s="2" t="str">
-        <f>CONCATENATE("When talking about '",A38,"' replace with 'flow computer type' instead of ",A38,".")</f>
-        <v>When talking about 'OMNI' replace with 'flow computer type' instead of OMNI.</v>
+        <f t="shared" ref="E38:E41" si="4">CONCATENATE("When talking about '",A38,"' replace with 'flow computer type' instead of ",A38,".")</f>
+        <v>When talking about 'KHRONE' replace with 'flow computer type' instead of KHRONE.</v>
       </c>
       <c r="F38" s="14" t="str">
-        <f>CONCATENATE(A38," is a flow computer type name.")</f>
-        <v>OMNI is a flow computer type name.</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="F38:F40" si="5">CONCATENATE(A38," is a flow computer type name.")</f>
+        <v>KHRONE is a flow computer type name.</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>3</v>
@@ -2703,21 +2700,21 @@
         <v>68</v>
       </c>
       <c r="D39" s="3" t="str">
-        <f t="shared" ref="D39:D42" si="4">CONCATENATE("Terms related to '",A39,"' sometimes are names of flow computers type.")</f>
-        <v>Terms related to 'KHRONE' sometimes are names of flow computers type.</v>
+        <f t="shared" si="3"/>
+        <v>Terms related to 'S600' sometimes are names of flow computers type.</v>
       </c>
       <c r="E39" s="2" t="str">
-        <f t="shared" ref="E39:E42" si="5">CONCATENATE("When talking about '",A39,"' replace with 'flow computer type' instead of ",A39,".")</f>
-        <v>When talking about 'KHRONE' replace with 'flow computer type' instead of KHRONE.</v>
+        <f t="shared" si="4"/>
+        <v>When talking about 'S600' replace with 'flow computer type' instead of S600.</v>
       </c>
       <c r="F39" s="14" t="str">
-        <f t="shared" ref="F39:F41" si="6">CONCATENATE(A39," is a flow computer type name.")</f>
-        <v>KHRONE is a flow computer type name.</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>S600 is a flow computer type name.</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>3</v>
@@ -2726,21 +2723,21 @@
         <v>68</v>
       </c>
       <c r="D40" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Terms related to 'FC302' sometimes are names of flow computers type.</v>
+      </c>
+      <c r="E40" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>Terms related to 'S600' sometimes are names of flow computers type.</v>
-      </c>
-      <c r="E40" s="2" t="str">
+        <v>When talking about 'FC302' replace with 'flow computer type' instead of FC302.</v>
+      </c>
+      <c r="F40" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>When talking about 'S600' replace with 'flow computer type' instead of S600.</v>
-      </c>
-      <c r="F40" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v>S600 is a flow computer type name.</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>FC302 is a flow computer type name.</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>3</v>
@@ -2749,21 +2746,21 @@
         <v>68</v>
       </c>
       <c r="D41" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Terms related to 'FLOWBOSS' sometimes are names of flow computers type.</v>
+      </c>
+      <c r="E41" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>Terms related to 'FC302' sometimes are names of flow computers type.</v>
-      </c>
-      <c r="E41" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>When talking about 'FC302' replace with 'flow computer type' instead of FC302.</v>
-      </c>
-      <c r="F41" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v>FC302 is a flow computer type name.</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>When talking about 'FLOWBOSS' replace with 'flow computer type' instead of FLOWBOSS.</v>
+      </c>
+      <c r="F41" s="13" t="str">
+        <f>CONCATENATE("When context is related to flow computer types '",A41,"' could be the name of the flow computer type.")</f>
+        <v>When context is related to flow computer types 'FLOWBOSS' could be the name of the flow computer type.</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>3</v>
@@ -2772,21 +2769,21 @@
         <v>68</v>
       </c>
       <c r="D42" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>Terms related to 'FLOWBOSS' sometimes are names of flow computers type.</v>
+        <f>CONCATENATE("Terms related to '",A42,"' sometimes are names of flow computers firmware/type.")</f>
+        <v>Terms related to 'F407' sometimes are names of flow computers firmware/type.</v>
       </c>
       <c r="E42" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>When talking about 'FLOWBOSS' replace with 'flow computer type' instead of FLOWBOSS.</v>
+        <f t="shared" ref="E42:E44" si="6">CONCATENATE("When talking about '",A42,"' as a flow computer type replace with 'flow computer type' instead of ",A42,".")</f>
+        <v>When talking about 'F407' as a flow computer type replace with 'flow computer type' instead of F407.</v>
       </c>
       <c r="F42" s="13" t="str">
-        <f>CONCATENATE("When context is related to flow computer types '",A42,"' could be the name of the flow computer type.")</f>
-        <v>When context is related to flow computer types 'FLOWBOSS' could be the name of the flow computer type.</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="F42:F44" si="7">CONCATENATE("When context is related to flow computer types '",A42,"' could be the name of the flow computer type.")</f>
+        <v>When context is related to flow computer types 'F407' could be the name of the flow computer type.</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>3</v>
@@ -2795,21 +2792,21 @@
         <v>68</v>
       </c>
       <c r="D43" s="3" t="str">
-        <f>CONCATENATE("Terms related to '",A43,"' sometimes are names of flow computers firmware/type.")</f>
-        <v>Terms related to 'F407' sometimes are names of flow computers firmware/type.</v>
+        <f t="shared" ref="D43:D44" si="8">CONCATENATE("Terms related to '",A43,"' sometimes are names of flow computers firmware/type.")</f>
+        <v>Terms related to 'F107' sometimes are names of flow computers firmware/type.</v>
       </c>
       <c r="E43" s="2" t="str">
-        <f t="shared" ref="E43:E45" si="7">CONCATENATE("When talking about '",A43,"' as a flow computer type replace with 'flow computer type' instead of ",A43,".")</f>
-        <v>When talking about 'F407' as a flow computer type replace with 'flow computer type' instead of F407.</v>
+        <f t="shared" si="6"/>
+        <v>When talking about 'F107' as a flow computer type replace with 'flow computer type' instead of F107.</v>
       </c>
       <c r="F43" s="13" t="str">
-        <f t="shared" ref="F43:F45" si="8">CONCATENATE("When context is related to flow computer types '",A43,"' could be the name of the flow computer type.")</f>
-        <v>When context is related to flow computer types 'F407' could be the name of the flow computer type.</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>When context is related to flow computer types 'F107' could be the name of the flow computer type.</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>3</v>
@@ -2818,132 +2815,131 @@
         <v>68</v>
       </c>
       <c r="D44" s="3" t="str">
-        <f t="shared" ref="D44:D45" si="9">CONCATENATE("Terms related to '",A44,"' sometimes are names of flow computers firmware/type.")</f>
-        <v>Terms related to 'F107' sometimes are names of flow computers firmware/type.</v>
+        <f t="shared" si="8"/>
+        <v>Terms related to 'Thermofischer' sometimes are names of flow computers firmware/type.</v>
       </c>
       <c r="E44" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>When talking about 'Thermofischer' as a flow computer type replace with 'flow computer type' instead of Thermofischer.</v>
+      </c>
+      <c r="F44" s="13" t="str">
         <f t="shared" si="7"/>
-        <v>When talking about 'F107' as a flow computer type replace with 'flow computer type' instead of F107.</v>
-      </c>
-      <c r="F44" s="13" t="str">
-        <f t="shared" si="8"/>
-        <v>When context is related to flow computer types 'F107' could be the name of the flow computer type.</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>When context is related to flow computer types 'Thermofischer' could be the name of the flow computer type.</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D45" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>Terms related to 'Thermofischer' sometimes are names of flow computers firmware/type.</v>
+        <f t="shared" ref="D45:D48" si="9">CONCATENATE("The term '",A45,"' or similar, commonly refers to a fluid.")</f>
+        <v>The term 'natural gas' or similar, commonly refers to a fluid.</v>
       </c>
       <c r="E45" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>When talking about 'Thermofischer' as a flow computer type replace with 'flow computer type' instead of Thermofischer.</v>
-      </c>
-      <c r="F45" s="13" t="str">
-        <f t="shared" si="8"/>
-        <v>When context is related to flow computer types 'Thermofischer' could be the name of the flow computer type.</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <f>CONCATENATE("The term '",A45,"' or related can be replaced with 'fluid' instead.")</f>
+        <v>The term 'natural gas' or related can be replaced with 'fluid' instead.</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D46" s="3" t="str">
-        <f t="shared" ref="D46:D49" si="10">CONCATENATE("The term '",A46,"' or similar, commonly refers to a fluid.")</f>
-        <v>The term 'natural gas' or similar, commonly refers to a fluid.</v>
+        <f t="shared" si="9"/>
+        <v>The term 'petrol' or similar, commonly refers to a fluid.</v>
       </c>
       <c r="E46" s="2" t="str">
-        <f>CONCATENATE("The term '",A46,"' or related can be replaced with 'fluid' instead.")</f>
-        <v>The term 'natural gas' or related can be replaced with 'fluid' instead.</v>
+        <f t="shared" ref="E46:E48" si="10">CONCATENATE("The term '",A46,"' or related can be replaced with 'fluid' instead.")</f>
+        <v>The term 'petrol' or related can be replaced with 'fluid' instead.</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D47" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>The term 'water' or similar, commonly refers to a fluid.</v>
+      </c>
+      <c r="E47" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>The term 'petrol' or similar, commonly refers to a fluid.</v>
-      </c>
-      <c r="E47" s="2" t="str">
-        <f t="shared" ref="E47:E49" si="11">CONCATENATE("The term '",A47,"' or related can be replaced with 'fluid' instead.")</f>
-        <v>The term 'petrol' or related can be replaced with 'fluid' instead.</v>
+        <v>The term 'water' or related can be replaced with 'fluid' instead.</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D48" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>The term 'vapour' or similar, commonly refers to a fluid.</v>
+      </c>
+      <c r="E48" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>The term 'water' or similar, commonly refers to a fluid.</v>
-      </c>
-      <c r="E48" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>The term 'water' or related can be replaced with 'fluid' instead.</v>
+        <v>The term 'vapour' or related can be replaced with 'fluid' instead.</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D49" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>The term 'vapour' or similar, commonly refers to a fluid.</v>
+        <f>CONCATENATE("The term '",A49,"', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.")</f>
+        <v>The term 'Cexis', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
       </c>
       <c r="E49" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>The term 'vapour' or related can be replaced with 'fluid' instead.</v>
+        <f>CONCATENATE("The term '",A49,"' refers to a platform, use 'platform' instead of ",A49,".")</f>
+        <v>The term 'Cexis' refers to a platform, use 'platform' instead of Cexis.</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>0</v>
@@ -2952,20 +2948,20 @@
         <v>61</v>
       </c>
       <c r="D50" s="3" t="str">
-        <f>CONCATENATE("The term '",A50,"', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.")</f>
-        <v>The term 'Cexis', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
+        <f t="shared" ref="D50:D71" si="11">CONCATENATE("The term '",A50,"', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.")</f>
+        <v>The term 'Campo dom João', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
       </c>
       <c r="E50" s="2" t="str">
-        <f>CONCATENATE("The term '",A50,"' refers to a platform, use 'platform' instead of ",A50,".")</f>
-        <v>The term 'Cexis' refers to a platform, use 'platform' instead of Cexis.</v>
+        <f t="shared" ref="E50:E71" si="12">CONCATENATE("The term '",A50,"' refers to a platform, use 'platform' instead of ",A50,".")</f>
+        <v>The term 'Campo dom João' refers to a platform, use 'platform' instead of Campo dom João.</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>0</v>
@@ -2974,20 +2970,20 @@
         <v>61</v>
       </c>
       <c r="D51" s="3" t="str">
-        <f t="shared" ref="D51:D72" si="12">CONCATENATE("The term '",A51,"', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.")</f>
-        <v>The term 'Campo dom João', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
+        <f t="shared" si="11"/>
+        <v>The term 'Estação Marapé', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
       </c>
       <c r="E51" s="2" t="str">
-        <f t="shared" ref="E51:E72" si="13">CONCATENATE("The term '",A51,"' refers to a platform, use 'platform' instead of ",A51,".")</f>
-        <v>The term 'Campo dom João' refers to a platform, use 'platform' instead of Campo dom João.</v>
+        <f t="shared" si="12"/>
+        <v>The term 'Estação Marapé' refers to a platform, use 'platform' instead of Estação Marapé.</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>0</v>
@@ -2996,20 +2992,20 @@
         <v>61</v>
       </c>
       <c r="D52" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>The term 'Ponto de Coleta do C-158', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
+      </c>
+      <c r="E52" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>The term 'Estação Marapé', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
-      </c>
-      <c r="E52" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>The term 'Estação Marapé' refers to a platform, use 'platform' instead of Estação Marapé.</v>
+        <v>The term 'Ponto de Coleta do C-158' refers to a platform, use 'platform' instead of Ponto de Coleta do C-158.</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>0</v>
@@ -3018,20 +3014,20 @@
         <v>61</v>
       </c>
       <c r="D53" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>The term 'Estação Dom João (antiga Est. “F”)', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
+      </c>
+      <c r="E53" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>The term 'Ponto de Coleta do C-158', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
-      </c>
-      <c r="E53" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>The term 'Ponto de Coleta do C-158' refers to a platform, use 'platform' instead of Ponto de Coleta do C-158.</v>
+        <v>The term 'Estação Dom João (antiga Est. “F”)' refers to a platform, use 'platform' instead of Estação Dom João (antiga Est. “F”).</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>0</v>
@@ -3040,20 +3036,20 @@
         <v>61</v>
       </c>
       <c r="D54" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>The term 'Estação de gás de Aratu', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
+      </c>
+      <c r="E54" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>The term 'Estação Dom João (antiga Est. “F”)', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
-      </c>
-      <c r="E54" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>The term 'Estação Dom João (antiga Est. “F”)' refers to a platform, use 'platform' instead of Estação Dom João (antiga Est. “F”).</v>
+        <v>The term 'Estação de gás de Aratu' refers to a platform, use 'platform' instead of Estação de gás de Aratu.</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>0</v>
@@ -3062,20 +3058,20 @@
         <v>61</v>
       </c>
       <c r="D55" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>The term 'ECOMP Ferrolho', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
+      </c>
+      <c r="E55" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>The term 'Estação de gás de Aratu', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
-      </c>
-      <c r="E55" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>The term 'Estação de gás de Aratu' refers to a platform, use 'platform' instead of Estação de gás de Aratu.</v>
+        <v>The term 'ECOMP Ferrolho' refers to a platform, use 'platform' instead of ECOMP Ferrolho.</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>0</v>
@@ -3084,20 +3080,20 @@
         <v>61</v>
       </c>
       <c r="D56" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>The term 'Ponto de Coleta do HBV-1', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
+      </c>
+      <c r="E56" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>The term 'ECOMP Ferrolho', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
-      </c>
-      <c r="E56" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>The term 'ECOMP Ferrolho' refers to a platform, use 'platform' instead of ECOMP Ferrolho.</v>
+        <v>The term 'Ponto de Coleta do HBV-1' refers to a platform, use 'platform' instead of Ponto de Coleta do HBV-1.</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>0</v>
@@ -3106,20 +3102,20 @@
         <v>61</v>
       </c>
       <c r="D57" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>The term 'Ponto de Coleta do A-22', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
+      </c>
+      <c r="E57" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>The term 'Ponto de Coleta do HBV-1', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
-      </c>
-      <c r="E57" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>The term 'Ponto de Coleta do HBV-1' refers to a platform, use 'platform' instead of Ponto de Coleta do HBV-1.</v>
+        <v>The term 'Ponto de Coleta do A-22' refers to a platform, use 'platform' instead of Ponto de Coleta do A-22.</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>0</v>
@@ -3128,20 +3124,20 @@
         <v>61</v>
       </c>
       <c r="D58" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>The term 'Ponto de Coleta do MUI-15', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
+      </c>
+      <c r="E58" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>The term 'Ponto de Coleta do A-22', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
-      </c>
-      <c r="E58" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>The term 'Ponto de Coleta do A-22' refers to a platform, use 'platform' instead of Ponto de Coleta do A-22.</v>
+        <v>The term 'Ponto de Coleta do MUI-15' refers to a platform, use 'platform' instead of Ponto de Coleta do MUI-15.</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>0</v>
@@ -3150,20 +3146,20 @@
         <v>61</v>
       </c>
       <c r="D59" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>The term 'Estação Coletora Massuí', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
+      </c>
+      <c r="E59" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>The term 'Ponto de Coleta do MUI-15', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
-      </c>
-      <c r="E59" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>The term 'Ponto de Coleta do MUI-15' refers to a platform, use 'platform' instead of Ponto de Coleta do MUI-15.</v>
+        <v>The term 'Estação Coletora Massuí' refers to a platform, use 'platform' instead of Estação Coletora Massuí.</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>0</v>
@@ -3172,20 +3168,20 @@
         <v>61</v>
       </c>
       <c r="D60" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>The term 'Ponto de Coleta do MRB-1', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
+      </c>
+      <c r="E60" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>The term 'Estação Coletora Massuí', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
-      </c>
-      <c r="E60" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>The term 'Estação Coletora Massuí' refers to a platform, use 'platform' instead of Estação Coletora Massuí.</v>
+        <v>The term 'Ponto de Coleta do MRB-1' refers to a platform, use 'platform' instead of Ponto de Coleta do MRB-1.</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>0</v>
@@ -3194,20 +3190,20 @@
         <v>61</v>
       </c>
       <c r="D61" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>The term 'Estação Palmeira', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
+      </c>
+      <c r="E61" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>The term 'Ponto de Coleta do MRB-1', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
-      </c>
-      <c r="E61" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>The term 'Ponto de Coleta do MRB-1' refers to a platform, use 'platform' instead of Ponto de Coleta do MRB-1.</v>
+        <v>The term 'Estação Palmeira' refers to a platform, use 'platform' instead of Estação Palmeira.</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>0</v>
@@ -3216,20 +3212,20 @@
         <v>61</v>
       </c>
       <c r="D62" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>The term 'Estação Pedra Branca', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
+      </c>
+      <c r="E62" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>The term 'Estação Palmeira', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
-      </c>
-      <c r="E62" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>The term 'Estação Palmeira' refers to a platform, use 'platform' instead of Estação Palmeira.</v>
+        <v>The term 'Estação Pedra Branca' refers to a platform, use 'platform' instead of Estação Pedra Branca.</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B63" s="9" t="s">
         <v>0</v>
@@ -3238,20 +3234,20 @@
         <v>61</v>
       </c>
       <c r="D63" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>The term 'ECOMP Pitinga', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
+      </c>
+      <c r="E63" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>The term 'Estação Pedra Branca', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
-      </c>
-      <c r="E63" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>The term 'Estação Pedra Branca' refers to a platform, use 'platform' instead of Estação Pedra Branca.</v>
+        <v>The term 'ECOMP Pitinga' refers to a platform, use 'platform' instead of ECOMP Pitinga.</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B64" s="9" t="s">
         <v>0</v>
@@ -3260,20 +3256,20 @@
         <v>61</v>
       </c>
       <c r="D64" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>The term 'Parque São Paulo', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
+      </c>
+      <c r="E64" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>The term 'ECOMP Pitinga', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
-      </c>
-      <c r="E64" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>The term 'ECOMP Pitinga' refers to a platform, use 'platform' instead of ECOMP Pitinga.</v>
+        <v>The term 'Parque São Paulo' refers to a platform, use 'platform' instead of Parque São Paulo.</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>0</v>
@@ -3282,20 +3278,20 @@
         <v>61</v>
       </c>
       <c r="D65" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>The term 'Estação São Paulinho', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
+      </c>
+      <c r="E65" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>The term 'Parque São Paulo', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
-      </c>
-      <c r="E65" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>The term 'Parque São Paulo' refers to a platform, use 'platform' instead of Parque São Paulo.</v>
+        <v>The term 'Estação São Paulinho' refers to a platform, use 'platform' instead of Estação São Paulinho.</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B66" s="9" t="s">
         <v>0</v>
@@ -3304,20 +3300,20 @@
         <v>61</v>
       </c>
       <c r="D66" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>The term 'São Domingos', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
+      </c>
+      <c r="E66" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>The term 'Estação São Paulinho', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
-      </c>
-      <c r="E66" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>The term 'Estação São Paulinho' refers to a platform, use 'platform' instead of Estação São Paulinho.</v>
+        <v>The term 'São Domingos' refers to a platform, use 'platform' instead of São Domingos.</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B67" s="9" t="s">
         <v>0</v>
@@ -3326,20 +3322,20 @@
         <v>61</v>
       </c>
       <c r="D67" s="3" t="str">
+        <f>CONCATENATE("The term '",A67,"', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.")</f>
+        <v>The term 'Ponto de Coleta do SC-3', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
+      </c>
+      <c r="E67" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>The term 'São Domingos', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
-      </c>
-      <c r="E67" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>The term 'São Domingos' refers to a platform, use 'platform' instead of São Domingos.</v>
+        <v>The term 'Ponto de Coleta do SC-3' refers to a platform, use 'platform' instead of Ponto de Coleta do SC-3.</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B68" s="9" t="s">
         <v>0</v>
@@ -3348,20 +3344,20 @@
         <v>61</v>
       </c>
       <c r="D68" s="3" t="str">
-        <f>CONCATENATE("The term '",A68,"', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.")</f>
-        <v>The term 'Ponto de Coleta do SC-3', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
+        <f t="shared" si="11"/>
+        <v>The term 'Estação Socorro', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
       </c>
       <c r="E68" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>The term 'Ponto de Coleta do SC-3' refers to a platform, use 'platform' instead of Ponto de Coleta do SC-3.</v>
+        <f t="shared" si="12"/>
+        <v>The term 'Estação Socorro' refers to a platform, use 'platform' instead of Estação Socorro.</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B69" s="9" t="s">
         <v>0</v>
@@ -3370,20 +3366,20 @@
         <v>61</v>
       </c>
       <c r="D69" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>The term 'Ponto de Coleta do SVE-1', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
+      </c>
+      <c r="E69" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>The term 'Estação Socorro', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
-      </c>
-      <c r="E69" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>The term 'Estação Socorro' refers to a platform, use 'platform' instead of Estação Socorro.</v>
+        <v>The term 'Ponto de Coleta do SVE-1' refers to a platform, use 'platform' instead of Ponto de Coleta do SVE-1.</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B70" s="9" t="s">
         <v>0</v>
@@ -3392,20 +3388,20 @@
         <v>61</v>
       </c>
       <c r="D70" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>The term 'Estação de Compressores UPGN de Candeias', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
+      </c>
+      <c r="E70" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>The term 'Ponto de Coleta do SVE-1', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
-      </c>
-      <c r="E70" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>The term 'Ponto de Coleta do SVE-1' refers to a platform, use 'platform' instead of Ponto de Coleta do SVE-1.</v>
+        <v>The term 'Estação de Compressores UPGN de Candeias' refers to a platform, use 'platform' instead of Estação de Compressores UPGN de Candeias.</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B71" s="9" t="s">
         <v>0</v>
@@ -3414,275 +3410,271 @@
         <v>61</v>
       </c>
       <c r="D71" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>The term 'UPGN de Candeias', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
+      </c>
+      <c r="E71" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>The term 'Estação de Compressores UPGN de Candeias', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
-      </c>
-      <c r="E71" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>The term 'Estação de Compressores UPGN de Candeias' refers to a platform, use 'platform' instead of Estação de Compressores UPGN de Candeias.</v>
+        <v>The term 'UPGN de Candeias' refers to a platform, use 'platform' instead of UPGN de Candeias.</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
-        <v>37</v>
+        <v>128</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D72" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>The term 'UPGN de Candeias', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
+        <f>CONCATENATE("The term '",A72,"' or similar, commonly refers to a fluid.")</f>
+        <v>The term 'crude oil' or similar, commonly refers to a fluid.</v>
       </c>
       <c r="E72" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>The term 'UPGN de Candeias' refers to a platform, use 'platform' instead of UPGN de Candeias.</v>
+        <f t="shared" ref="E72" si="13">CONCATENATE("The term '",A72,"' or related can be replaced with 'fluid' instead.")</f>
+        <v>The term 'crude oil' or related can be replaced with 'fluid' instead.</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B73" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B73" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>66</v>
+      <c r="C73" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="D73" s="3" t="str">
-        <f>CONCATENATE("The term '",A73,"' or similar, commonly refers to a fluid.")</f>
-        <v>The term 'crude oil' or similar, commonly refers to a fluid.</v>
+        <f>CONCATENATE("The term '",A73,"' or similar refers to a measure type for measurement systems.")</f>
+        <v>The term 'fiscal' or similar refers to a measure type for measurement systems.</v>
       </c>
       <c r="E73" s="2" t="str">
-        <f t="shared" ref="E73" si="14">CONCATENATE("The term '",A73,"' or related can be replaced with 'fluid' instead.")</f>
-        <v>The term 'crude oil' or related can be replaced with 'fluid' instead.</v>
+        <f>CONCATENATE("The term '",A73,"' or related refers to a measure type, use 'measure type' instead.")</f>
+        <v>The term 'fiscal' or related refers to a measure type, use 'measure type' instead.</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
         <v>124</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D74" s="3" t="str">
-        <f>CONCATENATE("The term '",A74,"' or similar refers to a measure type for measurement systems.")</f>
-        <v>The term 'fiscal' or similar refers to a measure type for measurement systems.</v>
+        <f t="shared" ref="D74:D77" si="14">CONCATENATE("The term '",A74,"' or similar refers to a measure type for measurement systems.")</f>
+        <v>The term 'Appropriation' or similar refers to a measure type for measurement systems.</v>
       </c>
       <c r="E74" s="2" t="str">
-        <f>CONCATENATE("The term '",A74,"' or related refers to a measure type, use 'measure type' instead.")</f>
-        <v>The term 'fiscal' or related refers to a measure type, use 'measure type' instead.</v>
+        <f t="shared" ref="E74:E77" si="15">CONCATENATE("The term '",A74,"' or related refers to a measure type, use 'measure type' instead.")</f>
+        <v>The term 'Appropriation' or related refers to a measure type, use 'measure type' instead.</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
         <v>125</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D75" s="3" t="str">
-        <f t="shared" ref="D75:D78" si="15">CONCATENATE("The term '",A75,"' or similar refers to a measure type for measurement systems.")</f>
-        <v>The term 'Appropriation' or similar refers to a measure type for measurement systems.</v>
+        <f t="shared" si="14"/>
+        <v>The term 'operational' or similar refers to a measure type for measurement systems.</v>
       </c>
       <c r="E75" s="2" t="str">
-        <f t="shared" ref="E75:E78" si="16">CONCATENATE("The term '",A75,"' or related refers to a measure type, use 'measure type' instead.")</f>
-        <v>The term 'Appropriation' or related refers to a measure type, use 'measure type' instead.</v>
+        <f t="shared" si="15"/>
+        <v>The term 'operational' or related refers to a measure type, use 'measure type' instead.</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
         <v>126</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D76" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>The term 'custody' or similar refers to a measure type for measurement systems.</v>
+      </c>
+      <c r="E76" s="2" t="str">
         <f t="shared" si="15"/>
-        <v>The term 'operational' or similar refers to a measure type for measurement systems.</v>
-      </c>
-      <c r="E76" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>The term 'operational' or related refers to a measure type, use 'measure type' instead.</v>
+        <v>The term 'custody' or related refers to a measure type, use 'measure type' instead.</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
         <v>127</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D77" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>The term 'Production Wells' or similar refers to a measure type for measurement systems.</v>
+      </c>
+      <c r="E77" s="2" t="str">
         <f t="shared" si="15"/>
-        <v>The term 'custody' or similar refers to a measure type for measurement systems.</v>
-      </c>
-      <c r="E77" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>The term 'custody' or related refers to a measure type, use 'measure type' instead.</v>
+        <v>The term 'Production Wells' or related refers to a measure type, use 'measure type' instead.</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D78" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>The term 'Production Wells' or similar refers to a measure type for measurement systems.</v>
-      </c>
-      <c r="E78" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>The term 'Production Wells' or related refers to a measure type, use 'measure type' instead.</v>
+        <v>2</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>106</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D79" s="3" t="str">
+        <f>CONCATENATE("When talking about the term '",A79,"' or similar, it refers to the name/tag of the measurement system.")</f>
+        <v>When talking about the term 'EMED' or similar, it refers to the name/tag of the measurement system.</v>
+      </c>
+      <c r="E79" s="2" t="str">
+        <f>CONCATENATE("When talking about '",A79,"' as a measurement system replace with 'measurement system' instead.")</f>
+        <v>When talking about 'EMED' as a measurement system replace with 'measurement system' instead.</v>
+      </c>
+      <c r="F79" s="3"/>
     </row>
     <row r="80" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="9" t="s">
         <v>107</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C80" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D80" s="3" t="str">
+        <f>CONCATENATE("When talking about the term '",A80,"' or similar, it refers to the name of flow computer.")</f>
+        <v>When talking about the term 'EMED' or similar, it refers to the name of flow computer.</v>
+      </c>
+      <c r="E80" s="2" t="str">
+        <f>CONCATENATE("When talking about '",A80,"' as a flow computer replace with 'flow computer' instead.")</f>
+        <v>When talking about 'EMED' as a flow computer replace with 'flow computer' instead.</v>
+      </c>
+      <c r="F80" s="3"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D80" s="3" t="str">
-        <f>CONCATENATE("When talking about the term '",A80,"' or similar, it refers to the name/tag of the measurement system.")</f>
-        <v>When talking about the term 'EMED' or similar, it refers to the name/tag of the measurement system.</v>
-      </c>
-      <c r="E80" s="2" t="str">
-        <f>CONCATENATE("When talking about '",A80,"' as a measurement system replace with 'measurement system' instead.")</f>
-        <v>When talking about 'EMED' as a measurement system replace with 'measurement system' instead.</v>
-      </c>
-      <c r="F80" s="3"/>
-    </row>
-    <row r="81" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="D81" s="3" t="str">
-        <f>CONCATENATE("When talking about the term '",A81,"' or similar, it refers to the name of flow computer.")</f>
-        <v>When talking about the term 'EMED' or similar, it refers to the name of flow computer.</v>
-      </c>
-      <c r="E81" s="2" t="str">
-        <f>CONCATENATE("When talking about '",A81,"' as a flow computer replace with 'flow computer' instead.")</f>
-        <v>When talking about 'EMED' as a flow computer replace with 'flow computer' instead.</v>
+        <f>CONCATENATE("When talking about the term 'EMED...' or similar, it refers to the name/tag of the measurement system.")</f>
+        <v>When talking about the term 'EMED...' or similar, it refers to the name/tag of the measurement system.</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="F81" s="3"/>
     </row>
     <row r="82" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>62</v>
+        <v>1</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="D82" s="3" t="str">
-        <f>CONCATENATE("When talking about the term 'EMED...' or similar, it refers to the name/tag of the measurement system.")</f>
-        <v>When talking about the term 'EMED...' or similar, it refers to the name/tag of the measurement system.</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F82" s="3"/>
-    </row>
-    <row r="83" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="B83" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D83" s="3" t="str">
         <f>CONCATENATE("When talking about the term 'EMED...' or similar, it refers to the name of flow computer.")</f>
         <v>When talking about the term 'EMED...' or similar, it refers to the name of flow computer.</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="F83" s="3"/>
-    </row>
-    <row r="84" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E82" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F82" s="3"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D83" s="3" t="str">
+        <f>CONCATENATE("When talking about the term 'EST...' or similar, it refers to the name/tag of the measurement system.")</f>
+        <v>When talking about the term 'EST...' or similar, it refers to the name/tag of the measurement system.</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="15" t="s">
         <v>135</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>62</v>
@@ -3692,15 +3684,15 @@
         <v>When talking about the term 'EST...' or similar, it refers to the name/tag of the measurement system.</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="15" t="s">
         <v>136</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>62</v>
@@ -3710,133 +3702,133 @@
         <v>When talking about the term 'EST...' or similar, it refers to the name/tag of the measurement system.</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="15" t="s">
         <v>137</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D86" s="3" t="str">
+        <f>CONCATENATE("When talking about the term 'FQIT...' or similar, it refers to the name/tag of the measurement system.")</f>
+        <v>When talking about the term 'FQIT...' or similar, it refers to the name/tag of the measurement system.</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D87" s="3" t="str">
+        <f>CONCATENATE("When talking about the term 'TANQ...' or similar, it refers to the name/tag of the measurement system.")</f>
+        <v>When talking about the term 'TANQ...' or similar, it refers to the name/tag of the measurement system.</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D88" s="3" t="str">
         <f>CONCATENATE("When talking about the term 'EST...' or similar, it refers to the name/tag of the measurement system.")</f>
         <v>When talking about the term 'EST...' or similar, it refers to the name/tag of the measurement system.</v>
       </c>
-      <c r="E86" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B87" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D87" s="3" t="str">
-        <f>CONCATENATE("When talking about the term 'FQIT...' or similar, it refers to the name/tag of the measurement system.")</f>
-        <v>When talking about the term 'FQIT...' or similar, it refers to the name/tag of the measurement system.</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="B88" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D88" s="3" t="str">
-        <f>CONCATENATE("When talking about the term 'TANQ...' or similar, it refers to the name/tag of the measurement system.")</f>
-        <v>When talking about the term 'TANQ...' or similar, it refers to the name/tag of the measurement system.</v>
-      </c>
       <c r="E88" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="15" t="s">
         <v>140</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D89" s="3" t="str">
+        <f>CONCATENATE("When talking about the term 'FE-EMED...' or similar, it refers to the name/tag of the measurement system.")</f>
+        <v>When talking about the term 'FE-EMED...' or similar, it refers to the name/tag of the measurement system.</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D90" s="3" t="str">
+        <f>CONCATENATE("When talking about the term 'EST LIBTQ PAL...' or similar, it refers to the name/tag of the measurement system.")</f>
+        <v>When talking about the term 'EST LIBTQ PAL...' or similar, it refers to the name/tag of the measurement system.</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D91" s="3" t="str">
         <f>CONCATENATE("When talking about the term 'EST...' or similar, it refers to the name/tag of the measurement system.")</f>
         <v>When talking about the term 'EST...' or similar, it refers to the name/tag of the measurement system.</v>
       </c>
-      <c r="E89" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D90" s="3" t="str">
-        <f>CONCATENATE("When talking about the term 'FE-EMED...' or similar, it refers to the name/tag of the measurement system.")</f>
-        <v>When talking about the term 'FE-EMED...' or similar, it refers to the name/tag of the measurement system.</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="B91" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D91" s="3" t="str">
-        <f>CONCATENATE("When talking about the term 'EST LIBTQ PAL...' or similar, it refers to the name/tag of the measurement system.")</f>
-        <v>When talking about the term 'EST LIBTQ PAL...' or similar, it refers to the name/tag of the measurement system.</v>
-      </c>
       <c r="E91" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="15" t="s">
         <v>143</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D92" s="3" t="str">
-        <f>CONCATENATE("When talking about the term 'EST...' or similar, it refers to the name/tag of the measurement system.")</f>
-        <v>When talking about the term 'EST...' or similar, it refers to the name/tag of the measurement system.</v>
+        <f t="shared" ref="D92" si="16">CONCATENATE("When talking about the term 'TANQ...' or similar, it refers to the name/tag of the measurement system.")</f>
+        <v>When talking about the term 'TANQ...' or similar, it refers to the name/tag of the measurement system.</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3844,17 +3836,16 @@
         <v>144</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D93" s="3" t="str">
-        <f t="shared" ref="D93" si="17">CONCATENATE("When talking about the term 'TANQ...' or similar, it refers to the name/tag of the measurement system.")</f>
-        <v>When talking about the term 'TANQ...' or similar, it refers to the name/tag of the measurement system.</v>
+        <v>1</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3868,10 +3859,10 @@
         <v>67</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3885,10 +3876,10 @@
         <v>67</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3902,10 +3893,10 @@
         <v>67</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3919,95 +3910,98 @@
         <v>67</v>
       </c>
       <c r="D97" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E97" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="B98" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E98" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F98" s="10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="15" t="s">
         <v>163</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="15" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>62</v>
@@ -4016,55 +4010,57 @@
         <v>167</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B103" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F103" s="10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D104" s="1" t="str">
+        <f>CONCATENATE("When talking about the term '",A104,"' or similar, this refers to a variable read in the measurement system.")</f>
+        <v>When talking about the term 'density' or similar, this refers to a variable read in the measurement system.</v>
+      </c>
+      <c r="E104" s="1" t="str">
+        <f>CONCATENATE("The term '",A104,"' or related refers to a variable read in measurement system, replace with 'variable'.")</f>
+        <v>The term 'density' or related refers to a variable read in measurement system, replace with 'variable'.</v>
+      </c>
+      <c r="F104" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="15" t="s">
         <v>169</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F103" s="10" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="B104" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F104" s="10" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="15" t="s">
-        <v>176</v>
       </c>
       <c r="B105" s="9" t="s">
         <v>2</v>
@@ -4073,20 +4069,20 @@
         <v>64</v>
       </c>
       <c r="D105" s="1" t="str">
-        <f>CONCATENATE("When talking about the term '",A105,"' or similar, this refers to a variable read in the measurement system.")</f>
-        <v>When talking about the term 'density' or similar, this refers to a variable read in the measurement system.</v>
+        <f t="shared" ref="D105:D108" si="17">CONCATENATE("When talking about the term '",A105,"' or similar, this refers to a variable read in the measurement system.")</f>
+        <v>When talking about the term 'differential pressure' or similar, this refers to a variable read in the measurement system.</v>
       </c>
       <c r="E105" s="1" t="str">
-        <f>CONCATENATE("The term '",A105,"' or related refers to a variable read in measurement system, replace with 'variable'.")</f>
-        <v>The term 'density' or related refers to a variable read in measurement system, replace with 'variable'.</v>
+        <f t="shared" ref="E105:E108" si="18">CONCATENATE("The term '",A105,"' or related refers to a variable read in measurement system, replace with 'variable'.")</f>
+        <v>The term 'differential pressure' or related refers to a variable read in measurement system, replace with 'variable'.</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B106" s="9" t="s">
         <v>2</v>
@@ -4095,20 +4091,20 @@
         <v>64</v>
       </c>
       <c r="D106" s="1" t="str">
-        <f t="shared" ref="D106:D109" si="18">CONCATENATE("When talking about the term '",A106,"' or similar, this refers to a variable read in the measurement system.")</f>
-        <v>When talking about the term 'differential pressure' or similar, this refers to a variable read in the measurement system.</v>
+        <f t="shared" si="17"/>
+        <v>When talking about the term 'temperature' or similar, this refers to a variable read in the measurement system.</v>
       </c>
       <c r="E106" s="1" t="str">
-        <f t="shared" ref="E106:E109" si="19">CONCATENATE("The term '",A106,"' or related refers to a variable read in measurement system, replace with 'variable'.")</f>
-        <v>The term 'differential pressure' or related refers to a variable read in measurement system, replace with 'variable'.</v>
+        <f t="shared" si="18"/>
+        <v>The term 'temperature' or related refers to a variable read in measurement system, replace with 'variable'.</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B107" s="9" t="s">
         <v>2</v>
@@ -4117,20 +4113,20 @@
         <v>64</v>
       </c>
       <c r="D107" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>When talking about the term 'static pressure' or similar, this refers to a variable read in the measurement system.</v>
+      </c>
+      <c r="E107" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>When talking about the term 'temperature' or similar, this refers to a variable read in the measurement system.</v>
-      </c>
-      <c r="E107" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>The term 'temperature' or related refers to a variable read in measurement system, replace with 'variable'.</v>
+        <v>The term 'static pressure' or related refers to a variable read in measurement system, replace with 'variable'.</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B108" s="9" t="s">
         <v>2</v>
@@ -4139,42 +4135,34 @@
         <v>64</v>
       </c>
       <c r="D108" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>When talking about the term 'viscosity' or similar, this refers to a variable read in the measurement system.</v>
+      </c>
+      <c r="E108" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>When talking about the term 'static pressure' or similar, this refers to a variable read in the measurement system.</v>
-      </c>
-      <c r="E108" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>The term 'static pressure' or related refers to a variable read in measurement system, replace with 'variable'.</v>
+        <v>The term 'viscosity' or related refers to a variable read in measurement system, replace with 'variable'.</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B109" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D109" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>When talking about the term 'viscosity' or similar, this refers to a variable read in the measurement system.</v>
-      </c>
-      <c r="E109" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>The term 'viscosity' or related refers to a variable read in measurement system, replace with 'variable'.</v>
+        <v>65</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="15" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B110" s="9" t="s">
         <v>2</v>
@@ -4183,12 +4171,12 @@
         <v>65</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B111" s="9" t="s">
         <v>2</v>
@@ -4197,12 +4185,12 @@
         <v>65</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B112" s="9" t="s">
         <v>2</v>
@@ -4211,12 +4199,12 @@
         <v>65</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B113" s="9" t="s">
         <v>2</v>
@@ -4225,25 +4213,17 @@
         <v>65</v>
       </c>
       <c r="F113" s="10" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="B114" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F114" s="10" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F109" xr:uid="{236B0FD0-4DA2-46CE-B290-2BD321B2358A}"/>
+  <autoFilter ref="A1:F113" xr:uid="{236B0FD0-4DA2-46CE-B290-2BD321B2358A}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="fcs_computadores"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/utils/data/terms_data.xlsx
+++ b/src/utils/data/terms_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauth\OneDrive\Desktop\sql_assistant_v3\src\utils\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3AEB02-2338-42B2-94DB-A786B1A8D26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82E82CA-5ED3-4EDF-81D4-6812AD660F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="7992" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{5C924A35-3DA8-4BB0-97DA-79B54FEAE102}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{5C924A35-3DA8-4BB0-97DA-79B54FEAE102}"/>
   </bookViews>
   <sheets>
     <sheet name="examples_terms" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="328">
   <si>
     <t>platform</t>
   </si>
@@ -592,9 +592,6 @@
     <t xml:space="preserve">Platform is a place where you can find meters, measurement systems, flow computers, clients, storages, equipments. </t>
   </si>
   <si>
-    <t>No replace term for this term.</t>
-  </si>
-  <si>
     <t>Use 'firmware' instead of version.</t>
   </si>
   <si>
@@ -602,9 +599,6 @@
   </si>
   <si>
     <t>When talking about the term 'meter' (only 'meter' term, no primary or secondary within context), refers to a component of measurement system.</t>
-  </si>
-  <si>
-    <t>"Transmitter" or related is a equipment type, use 'equipment type' instead of transmitter.</t>
   </si>
   <si>
     <t>When related to base density, use 'variable' instead.
@@ -1007,7 +1001,40 @@
     <t>firmware version</t>
   </si>
   <si>
-    <t>When talking about flow computers, use the same term 'Flow computer'.</t>
+    <t>Use the term 'measurement system'.</t>
+  </si>
+  <si>
+    <t>Use the term 'platform'.</t>
+  </si>
+  <si>
+    <t>Use the term 'equipment'.</t>
+  </si>
+  <si>
+    <t>Use the term 'equipment types classification'.</t>
+  </si>
+  <si>
+    <t>Use the term 'equipment types'.</t>
+  </si>
+  <si>
+    <t>Use the term 'variable'.</t>
+  </si>
+  <si>
+    <t>Use the term 'flow computer'.</t>
+  </si>
+  <si>
+    <t>For the term 'Transmitter' or related, use 'equipment type' instead.</t>
+  </si>
+  <si>
+    <t>Use the term 'meter'.</t>
+  </si>
+  <si>
+    <t>The term sub fluid belongs to a measurement system, use 'measurement system'.</t>
+  </si>
+  <si>
+    <t>Use the term 'fluid'.</t>
+  </si>
+  <si>
+    <t>Tag belong to a measurement system, use 'measurement system'.</t>
   </si>
 </sst>
 </file>
@@ -1082,7 +1109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1131,9 +1158,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1488,47 +1512,47 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B6" t="s">
         <v>113</v>
@@ -1536,7 +1560,7 @@
     </row>
     <row r="7" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B7" t="s">
         <v>113</v>
@@ -1544,319 +1568,319 @@
     </row>
     <row r="8" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B14" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B16" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B17" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B18" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B19" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B20" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B22" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B23" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B24" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B25" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="B26" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B27" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="B28" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="B29" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="B26" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="B27" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="18" t="s">
+    <row r="30" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B30" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="18" t="s">
+    <row r="31" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B31" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="18" t="s">
+    <row r="32" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B32" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="18" t="s">
+    <row r="33" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B33" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="18" t="s">
+    <row r="34" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B34" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="18" t="s">
+    <row r="35" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B35" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="18" t="s">
+    <row r="36" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B36" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="B37" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="B35" t="s">
+    <row r="38" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="B38" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="B39" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="B36" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="B37" t="s">
+    <row r="40" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="B40" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="B38" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="18" t="s">
+    <row r="41" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B41" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="B42" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="B43" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="B40" t="s">
+    <row r="44" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="B44" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="B41" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="B42" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="18" t="s">
+    <row r="45" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="B43" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="18" t="s">
-        <v>258</v>
-      </c>
-      <c r="B44" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="18" t="s">
-        <v>259</v>
-      </c>
       <c r="B45" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B46" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B47" t="s">
         <v>109</v>
@@ -1864,7 +1888,7 @@
     </row>
     <row r="48" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B48" t="s">
         <v>1</v>
@@ -1872,58 +1896,58 @@
     </row>
     <row r="49" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B49" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B50" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B51" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B52" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B53" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B54" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B55" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -1933,12 +1957,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{236B0FD0-4DA2-46CE-B290-2BD321B2358A}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E80" sqref="E80"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="34" defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1947,7 +1970,7 @@
     <col min="2" max="2" width="20" style="15" customWidth="1"/>
     <col min="3" max="3" width="22.44140625" style="10" customWidth="1"/>
     <col min="4" max="4" width="49.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="39.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="73.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="97.21875" style="10" customWidth="1"/>
     <col min="7" max="16384" width="34" style="10"/>
   </cols>
@@ -1972,7 +1995,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="12" customFormat="1" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="12" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>111</v>
       </c>
@@ -1983,9 +2006,11 @@
         <v>58</v>
       </c>
       <c r="D2" s="4"/>
-      <c r="E2" s="17"/>
-    </row>
-    <row r="3" spans="1:6" s="12" customFormat="1" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="12" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>110</v>
       </c>
@@ -1996,9 +2021,11 @@
         <v>59</v>
       </c>
       <c r="D3" s="4"/>
-      <c r="E3" s="17"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>112</v>
       </c>
@@ -2009,13 +2036,13 @@
         <v>60</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>113</v>
       </c>
@@ -2029,12 +2056,12 @@
         <v>180</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>0</v>
@@ -2043,16 +2070,16 @@
         <v>61</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>109</v>
       </c>
@@ -2063,15 +2090,15 @@
         <v>62</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>119</v>
@@ -2080,13 +2107,13 @@
         <v>63</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="12" customFormat="1" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="12" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>114</v>
       </c>
@@ -2097,9 +2124,11 @@
         <v>65</v>
       </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="17"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>115</v>
       </c>
@@ -2113,7 +2142,7 @@
         <v>152</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>116</v>
@@ -2133,10 +2162,10 @@
         <v>178</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>45</v>
       </c>
@@ -2150,11 +2179,11 @@
         <v>153</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>151</v>
       </c>
@@ -2165,16 +2194,16 @@
         <v>150</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>181</v>
+        <v>324</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>46</v>
       </c>
@@ -2194,7 +2223,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>47</v>
       </c>
@@ -2209,12 +2238,12 @@
         <v>The term 'orifice plate' commonly refers to an equipment type.</v>
       </c>
       <c r="E15" s="2" t="str">
-        <f>CONCATENATE("Look at the term '",A15,"' or similar term and replace with 'equipment type' instead.")</f>
+        <f t="shared" ref="E15:E27" si="0">CONCATENATE("Look at the term '",A15,"' or similar term and replace with 'equipment type' instead.")</f>
         <v>Look at the term 'orifice plate' or similar term and replace with 'equipment type' instead.</v>
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>48</v>
       </c>
@@ -2225,15 +2254,15 @@
         <v>59</v>
       </c>
       <c r="D16" s="3" t="str">
-        <f t="shared" ref="D16:D27" si="0">CONCATENATE("The term '",A16,"' commonly refers to an equipment type.")</f>
+        <f t="shared" ref="D16:D27" si="1">CONCATENATE("The term '",A16,"' commonly refers to an equipment type.")</f>
         <v>The term 'portaplacas' commonly refers to an equipment type.</v>
       </c>
       <c r="E16" s="2" t="str">
-        <f>CONCATENATE("Look at the term '",A16,"' or similar term and replace with 'equipment type' instead.")</f>
+        <f t="shared" si="0"/>
         <v>Look at the term 'portaplacas' or similar term and replace with 'equipment type' instead.</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>49</v>
       </c>
@@ -2244,15 +2273,15 @@
         <v>59</v>
       </c>
       <c r="D17" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>The term 'conditioner' commonly refers to an equipment type.</v>
+      </c>
+      <c r="E17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>The term 'conditioner' commonly refers to an equipment type.</v>
-      </c>
-      <c r="E17" s="2" t="str">
-        <f>CONCATENATE("Look at the term '",A17,"' or similar term and replace with 'equipment type' instead.")</f>
         <v>Look at the term 'conditioner' or similar term and replace with 'equipment type' instead.</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>50</v>
       </c>
@@ -2263,15 +2292,15 @@
         <v>59</v>
       </c>
       <c r="D18" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>The term 'Analyzer' commonly refers to an equipment type.</v>
+      </c>
+      <c r="E18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>The term 'Analyzer' commonly refers to an equipment type.</v>
-      </c>
-      <c r="E18" s="2" t="str">
-        <f>CONCATENATE("Look at the term '",A18,"' or similar term and replace with 'equipment type' instead.")</f>
         <v>Look at the term 'Analyzer' or similar term and replace with 'equipment type' instead.</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>44</v>
       </c>
@@ -2282,15 +2311,15 @@
         <v>59</v>
       </c>
       <c r="D19" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>The term 'Cone Meter' commonly refers to an equipment type.</v>
+      </c>
+      <c r="E19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>The term 'Cone Meter' commonly refers to an equipment type.</v>
-      </c>
-      <c r="E19" s="2" t="str">
-        <f>CONCATENATE("Look at the term '",A19,"' or similar term and replace with 'equipment type' instead.")</f>
         <v>Look at the term 'Cone Meter' or similar term and replace with 'equipment type' instead.</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>1</v>
       </c>
@@ -2304,11 +2333,11 @@
         <v>179</v>
       </c>
       <c r="E20" s="2" t="str">
-        <f>CONCATENATE("Look at the term '",A20,"' or similar term and replace with 'equipment type' instead.")</f>
+        <f t="shared" si="0"/>
         <v>Look at the term 'flow computer' or similar term and replace with 'equipment type' instead.</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>51</v>
       </c>
@@ -2319,15 +2348,15 @@
         <v>59</v>
       </c>
       <c r="D21" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>The term 'valves' commonly refers to an equipment type.</v>
+      </c>
+      <c r="E21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>The term 'valves' commonly refers to an equipment type.</v>
-      </c>
-      <c r="E21" s="2" t="str">
-        <f>CONCATENATE("Look at the term '",A21,"' or similar term and replace with 'equipment type' instead.")</f>
         <v>Look at the term 'valves' or similar term and replace with 'equipment type' instead.</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>52</v>
       </c>
@@ -2338,15 +2367,15 @@
         <v>59</v>
       </c>
       <c r="D22" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>The term 'termo cupla' commonly refers to an equipment type.</v>
+      </c>
+      <c r="E22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>The term 'termo cupla' commonly refers to an equipment type.</v>
-      </c>
-      <c r="E22" s="2" t="str">
-        <f>CONCATENATE("Look at the term '",A22,"' or similar term and replace with 'equipment type' instead.")</f>
         <v>Look at the term 'termo cupla' or similar term and replace with 'equipment type' instead.</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>132</v>
       </c>
@@ -2357,15 +2386,15 @@
         <v>59</v>
       </c>
       <c r="D23" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>The term 'RTD' commonly refers to an equipment type.</v>
+      </c>
+      <c r="E23" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>The term 'RTD' commonly refers to an equipment type.</v>
-      </c>
-      <c r="E23" s="2" t="str">
-        <f>CONCATENATE("Look at the term '",A23,"' or similar term and replace with 'equipment type' instead.")</f>
         <v>Look at the term 'RTD' or similar term and replace with 'equipment type' instead.</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>53</v>
       </c>
@@ -2376,15 +2405,15 @@
         <v>59</v>
       </c>
       <c r="D24" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>The term 'Chromatograph' commonly refers to an equipment type.</v>
+      </c>
+      <c r="E24" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>The term 'Chromatograph' commonly refers to an equipment type.</v>
-      </c>
-      <c r="E24" s="2" t="str">
-        <f>CONCATENATE("Look at the term '",A24,"' or similar term and replace with 'equipment type' instead.")</f>
         <v>Look at the term 'Chromatograph' or similar term and replace with 'equipment type' instead.</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>54</v>
       </c>
@@ -2395,15 +2424,15 @@
         <v>59</v>
       </c>
       <c r="D25" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>The term 'tank' commonly refers to an equipment type.</v>
+      </c>
+      <c r="E25" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>The term 'tank' commonly refers to an equipment type.</v>
-      </c>
-      <c r="E25" s="2" t="str">
-        <f>CONCATENATE("Look at the term '",A25,"' or similar term and replace with 'equipment type' instead.")</f>
         <v>Look at the term 'tank' or similar term and replace with 'equipment type' instead.</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>55</v>
       </c>
@@ -2414,15 +2443,15 @@
         <v>59</v>
       </c>
       <c r="D26" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>The term 'densimeter' commonly refers to an equipment type.</v>
+      </c>
+      <c r="E26" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>The term 'densimeter' commonly refers to an equipment type.</v>
-      </c>
-      <c r="E26" s="2" t="str">
-        <f>CONCATENATE("Look at the term '",A26,"' or similar term and replace with 'equipment type' instead.")</f>
         <v>Look at the term 'densimeter' or similar term and replace with 'equipment type' instead.</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>56</v>
       </c>
@@ -2433,15 +2462,15 @@
         <v>59</v>
       </c>
       <c r="D27" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>The term 'termometer' commonly refers to an equipment type.</v>
+      </c>
+      <c r="E27" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>The term 'termometer' commonly refers to an equipment type.</v>
-      </c>
-      <c r="E27" s="2" t="str">
-        <f>CONCATENATE("Look at the term '",A27,"' or similar term and replace with 'equipment type' instead.")</f>
         <v>Look at the term 'termometer' or similar term and replace with 'equipment type' instead.</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>157</v>
       </c>
@@ -2463,7 +2492,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>158</v>
       </c>
@@ -2485,7 +2514,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>159</v>
       </c>
@@ -2507,7 +2536,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>122</v>
       </c>
@@ -2529,7 +2558,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>51</v>
       </c>
@@ -2551,7 +2580,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>9</v>
       </c>
@@ -2562,7 +2591,7 @@
         <v>63</v>
       </c>
       <c r="D33" s="3" t="str">
-        <f t="shared" ref="D33:D35" si="1">CONCATENATE("Terms related to '",A33,"' sometimes are names of flow computers firmwares/type")</f>
+        <f t="shared" ref="D33:D35" si="2">CONCATENATE("Terms related to '",A33,"' sometimes are names of flow computers firmwares/type")</f>
         <v>Terms related to 'F407' sometimes are names of flow computers firmwares/type</v>
       </c>
       <c r="E33" s="2" t="str">
@@ -2570,11 +2599,11 @@
         <v>When talking about 'F407' as a flow computer firmware, replace with 'firmware' instead of F407.</v>
       </c>
       <c r="F33" s="13" t="str">
-        <f t="shared" ref="F33:F36" si="2">CONCATENATE("When context is related to flow computer firmware, '",A33,"' could be the name of the flow computer firmware.")</f>
+        <f t="shared" ref="F33:F36" si="3">CONCATENATE("When context is related to flow computer firmware, '",A33,"' could be the name of the flow computer firmware.")</f>
         <v>When context is related to flow computer firmware, 'F407' could be the name of the flow computer firmware.</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>12</v>
       </c>
@@ -2585,7 +2614,7 @@
         <v>63</v>
       </c>
       <c r="D34" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Terms related to 'FB107' sometimes are names of flow computers firmwares/type</v>
       </c>
       <c r="E34" s="2" t="str">
@@ -2593,11 +2622,11 @@
         <v>When talking about 'FB107' as a flow computer firmware, replace with 'firmware' instead of FB107.</v>
       </c>
       <c r="F34" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>When context is related to flow computer firmware, 'FB107' could be the name of the flow computer firmware.</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>13</v>
       </c>
@@ -2608,7 +2637,7 @@
         <v>63</v>
       </c>
       <c r="D35" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Terms related to 'EMED-010' sometimes are names of flow computers firmwares/type</v>
       </c>
       <c r="E35" s="2" t="str">
@@ -2616,11 +2645,11 @@
         <v>When talking about 'EMED-010' as a flow computer firmware, replace with 'firmware' instead of EMED-010.</v>
       </c>
       <c r="F35" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>When context is related to flow computer firmware, 'EMED-010' could be the name of the flow computer firmware.</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>11</v>
       </c>
@@ -2639,11 +2668,11 @@
         <v>When talking about 'Thermofischer' as a flow computer firmware, replace with 'firmware' instead of Thermofischer.</v>
       </c>
       <c r="F36" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>When context is related to flow computer firmware, 'Thermofischer' could be the name of the flow computer firmware.</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>4</v>
       </c>
@@ -2666,7 +2695,7 @@
         <v>OMNI is a flow computer type name.</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>5</v>
       </c>
@@ -2677,19 +2706,19 @@
         <v>68</v>
       </c>
       <c r="D38" s="3" t="str">
-        <f t="shared" ref="D38:D41" si="3">CONCATENATE("Terms related to '",A38,"' sometimes are names of flow computers type.")</f>
+        <f t="shared" ref="D38:D41" si="4">CONCATENATE("Terms related to '",A38,"' sometimes are names of flow computers type.")</f>
         <v>Terms related to 'KHRONE' sometimes are names of flow computers type.</v>
       </c>
       <c r="E38" s="2" t="str">
-        <f t="shared" ref="E38:E41" si="4">CONCATENATE("When talking about '",A38,"' replace with 'flow computer type' instead of ",A38,".")</f>
+        <f t="shared" ref="E38:E41" si="5">CONCATENATE("When talking about '",A38,"' replace with 'flow computer type' instead of ",A38,".")</f>
         <v>When talking about 'KHRONE' replace with 'flow computer type' instead of KHRONE.</v>
       </c>
       <c r="F38" s="14" t="str">
-        <f t="shared" ref="F38:F40" si="5">CONCATENATE(A38," is a flow computer type name.")</f>
+        <f t="shared" ref="F38:F40" si="6">CONCATENATE(A38," is a flow computer type name.")</f>
         <v>KHRONE is a flow computer type name.</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>6</v>
       </c>
@@ -2700,19 +2729,19 @@
         <v>68</v>
       </c>
       <c r="D39" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Terms related to 'S600' sometimes are names of flow computers type.</v>
       </c>
       <c r="E39" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>When talking about 'S600' replace with 'flow computer type' instead of S600.</v>
       </c>
       <c r="F39" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>S600 is a flow computer type name.</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>7</v>
       </c>
@@ -2723,19 +2752,19 @@
         <v>68</v>
       </c>
       <c r="D40" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Terms related to 'FC302' sometimes are names of flow computers type.</v>
       </c>
       <c r="E40" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>When talking about 'FC302' replace with 'flow computer type' instead of FC302.</v>
       </c>
       <c r="F40" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>FC302 is a flow computer type name.</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>8</v>
       </c>
@@ -2746,11 +2775,11 @@
         <v>68</v>
       </c>
       <c r="D41" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Terms related to 'FLOWBOSS' sometimes are names of flow computers type.</v>
       </c>
       <c r="E41" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>When talking about 'FLOWBOSS' replace with 'flow computer type' instead of FLOWBOSS.</v>
       </c>
       <c r="F41" s="13" t="str">
@@ -2758,7 +2787,7 @@
         <v>When context is related to flow computer types 'FLOWBOSS' could be the name of the flow computer type.</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>9</v>
       </c>
@@ -2773,15 +2802,15 @@
         <v>Terms related to 'F407' sometimes are names of flow computers firmware/type.</v>
       </c>
       <c r="E42" s="2" t="str">
-        <f t="shared" ref="E42:E44" si="6">CONCATENATE("When talking about '",A42,"' as a flow computer type replace with 'flow computer type' instead of ",A42,".")</f>
+        <f t="shared" ref="E42:E44" si="7">CONCATENATE("When talking about '",A42,"' as a flow computer type replace with 'flow computer type' instead of ",A42,".")</f>
         <v>When talking about 'F407' as a flow computer type replace with 'flow computer type' instead of F407.</v>
       </c>
       <c r="F42" s="13" t="str">
-        <f t="shared" ref="F42:F44" si="7">CONCATENATE("When context is related to flow computer types '",A42,"' could be the name of the flow computer type.")</f>
+        <f t="shared" ref="F42:F44" si="8">CONCATENATE("When context is related to flow computer types '",A42,"' could be the name of the flow computer type.")</f>
         <v>When context is related to flow computer types 'F407' could be the name of the flow computer type.</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>10</v>
       </c>
@@ -2792,19 +2821,19 @@
         <v>68</v>
       </c>
       <c r="D43" s="3" t="str">
-        <f t="shared" ref="D43:D44" si="8">CONCATENATE("Terms related to '",A43,"' sometimes are names of flow computers firmware/type.")</f>
+        <f t="shared" ref="D43:D44" si="9">CONCATENATE("Terms related to '",A43,"' sometimes are names of flow computers firmware/type.")</f>
         <v>Terms related to 'F107' sometimes are names of flow computers firmware/type.</v>
       </c>
       <c r="E43" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>When talking about 'F107' as a flow computer type replace with 'flow computer type' instead of F107.</v>
       </c>
       <c r="F43" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>When context is related to flow computer types 'F107' could be the name of the flow computer type.</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>11</v>
       </c>
@@ -2815,19 +2844,19 @@
         <v>68</v>
       </c>
       <c r="D44" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Terms related to 'Thermofischer' sometimes are names of flow computers firmware/type.</v>
+      </c>
+      <c r="E44" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>When talking about 'Thermofischer' as a flow computer type replace with 'flow computer type' instead of Thermofischer.</v>
+      </c>
+      <c r="F44" s="13" t="str">
         <f t="shared" si="8"/>
-        <v>Terms related to 'Thermofischer' sometimes are names of flow computers firmware/type.</v>
-      </c>
-      <c r="E44" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>When talking about 'Thermofischer' as a flow computer type replace with 'flow computer type' instead of Thermofischer.</v>
-      </c>
-      <c r="F44" s="13" t="str">
-        <f t="shared" si="7"/>
         <v>When context is related to flow computer types 'Thermofischer' could be the name of the flow computer type.</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>38</v>
       </c>
@@ -2838,7 +2867,7 @@
         <v>66</v>
       </c>
       <c r="D45" s="3" t="str">
-        <f t="shared" ref="D45:D48" si="9">CONCATENATE("The term '",A45,"' or similar, commonly refers to a fluid.")</f>
+        <f t="shared" ref="D45:D48" si="10">CONCATENATE("The term '",A45,"' or similar, commonly refers to a fluid.")</f>
         <v>The term 'natural gas' or similar, commonly refers to a fluid.</v>
       </c>
       <c r="E45" s="2" t="str">
@@ -2849,7 +2878,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>39</v>
       </c>
@@ -2860,18 +2889,18 @@
         <v>66</v>
       </c>
       <c r="D46" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>The term 'petrol' or similar, commonly refers to a fluid.</v>
       </c>
       <c r="E46" s="2" t="str">
-        <f t="shared" ref="E46:E48" si="10">CONCATENATE("The term '",A46,"' or related can be replaced with 'fluid' instead.")</f>
+        <f t="shared" ref="E46:E48" si="11">CONCATENATE("The term '",A46,"' or related can be replaced with 'fluid' instead.")</f>
         <v>The term 'petrol' or related can be replaced with 'fluid' instead.</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>40</v>
       </c>
@@ -2882,18 +2911,18 @@
         <v>66</v>
       </c>
       <c r="D47" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>The term 'water' or similar, commonly refers to a fluid.</v>
       </c>
       <c r="E47" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>The term 'water' or related can be replaced with 'fluid' instead.</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>41</v>
       </c>
@@ -2904,18 +2933,18 @@
         <v>66</v>
       </c>
       <c r="D48" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>The term 'vapour' or similar, commonly refers to a fluid.</v>
       </c>
       <c r="E48" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>The term 'vapour' or related can be replaced with 'fluid' instead.</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>15</v>
       </c>
@@ -2937,7 +2966,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>16</v>
       </c>
@@ -2948,18 +2977,18 @@
         <v>61</v>
       </c>
       <c r="D50" s="3" t="str">
-        <f t="shared" ref="D50:D71" si="11">CONCATENATE("The term '",A50,"', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.")</f>
+        <f t="shared" ref="D50:D71" si="12">CONCATENATE("The term '",A50,"', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.")</f>
         <v>The term 'Campo dom João', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
       </c>
       <c r="E50" s="2" t="str">
-        <f t="shared" ref="E50:E71" si="12">CONCATENATE("The term '",A50,"' refers to a platform, use 'platform' instead of ",A50,".")</f>
+        <f t="shared" ref="E50:E71" si="13">CONCATENATE("The term '",A50,"' refers to a platform, use 'platform' instead of ",A50,".")</f>
         <v>The term 'Campo dom João' refers to a platform, use 'platform' instead of Campo dom João.</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>17</v>
       </c>
@@ -2970,18 +2999,18 @@
         <v>61</v>
       </c>
       <c r="D51" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>The term 'Estação Marapé', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
       </c>
       <c r="E51" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>The term 'Estação Marapé' refers to a platform, use 'platform' instead of Estação Marapé.</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>18</v>
       </c>
@@ -2992,18 +3021,18 @@
         <v>61</v>
       </c>
       <c r="D52" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>The term 'Ponto de Coleta do C-158', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
       </c>
       <c r="E52" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>The term 'Ponto de Coleta do C-158' refers to a platform, use 'platform' instead of Ponto de Coleta do C-158.</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>19</v>
       </c>
@@ -3014,18 +3043,18 @@
         <v>61</v>
       </c>
       <c r="D53" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>The term 'Estação Dom João (antiga Est. “F”)', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
       </c>
       <c r="E53" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>The term 'Estação Dom João (antiga Est. “F”)' refers to a platform, use 'platform' instead of Estação Dom João (antiga Est. “F”).</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>20</v>
       </c>
@@ -3036,18 +3065,18 @@
         <v>61</v>
       </c>
       <c r="D54" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>The term 'Estação de gás de Aratu', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
       </c>
       <c r="E54" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>The term 'Estação de gás de Aratu' refers to a platform, use 'platform' instead of Estação de gás de Aratu.</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>21</v>
       </c>
@@ -3058,18 +3087,18 @@
         <v>61</v>
       </c>
       <c r="D55" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>The term 'ECOMP Ferrolho', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
       </c>
       <c r="E55" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>The term 'ECOMP Ferrolho' refers to a platform, use 'platform' instead of ECOMP Ferrolho.</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>22</v>
       </c>
@@ -3080,18 +3109,18 @@
         <v>61</v>
       </c>
       <c r="D56" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>The term 'Ponto de Coleta do HBV-1', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
       </c>
       <c r="E56" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>The term 'Ponto de Coleta do HBV-1' refers to a platform, use 'platform' instead of Ponto de Coleta do HBV-1.</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>23</v>
       </c>
@@ -3102,18 +3131,18 @@
         <v>61</v>
       </c>
       <c r="D57" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>The term 'Ponto de Coleta do A-22', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
       </c>
       <c r="E57" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>The term 'Ponto de Coleta do A-22' refers to a platform, use 'platform' instead of Ponto de Coleta do A-22.</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>24</v>
       </c>
@@ -3124,18 +3153,18 @@
         <v>61</v>
       </c>
       <c r="D58" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>The term 'Ponto de Coleta do MUI-15', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
       </c>
       <c r="E58" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>The term 'Ponto de Coleta do MUI-15' refers to a platform, use 'platform' instead of Ponto de Coleta do MUI-15.</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>25</v>
       </c>
@@ -3146,18 +3175,18 @@
         <v>61</v>
       </c>
       <c r="D59" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>The term 'Estação Coletora Massuí', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
       </c>
       <c r="E59" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>The term 'Estação Coletora Massuí' refers to a platform, use 'platform' instead of Estação Coletora Massuí.</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
         <v>26</v>
       </c>
@@ -3168,18 +3197,18 @@
         <v>61</v>
       </c>
       <c r="D60" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>The term 'Ponto de Coleta do MRB-1', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
       </c>
       <c r="E60" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>The term 'Ponto de Coleta do MRB-1' refers to a platform, use 'platform' instead of Ponto de Coleta do MRB-1.</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
         <v>27</v>
       </c>
@@ -3190,18 +3219,18 @@
         <v>61</v>
       </c>
       <c r="D61" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>The term 'Estação Palmeira', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
       </c>
       <c r="E61" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>The term 'Estação Palmeira' refers to a platform, use 'platform' instead of Estação Palmeira.</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
         <v>28</v>
       </c>
@@ -3212,18 +3241,18 @@
         <v>61</v>
       </c>
       <c r="D62" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>The term 'Estação Pedra Branca', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
       </c>
       <c r="E62" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>The term 'Estação Pedra Branca' refers to a platform, use 'platform' instead of Estação Pedra Branca.</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
         <v>29</v>
       </c>
@@ -3234,18 +3263,18 @@
         <v>61</v>
       </c>
       <c r="D63" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>The term 'ECOMP Pitinga', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
       </c>
       <c r="E63" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>The term 'ECOMP Pitinga' refers to a platform, use 'platform' instead of ECOMP Pitinga.</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
         <v>30</v>
       </c>
@@ -3256,18 +3285,18 @@
         <v>61</v>
       </c>
       <c r="D64" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>The term 'Parque São Paulo', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
       </c>
       <c r="E64" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>The term 'Parque São Paulo' refers to a platform, use 'platform' instead of Parque São Paulo.</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
         <v>31</v>
       </c>
@@ -3278,18 +3307,18 @@
         <v>61</v>
       </c>
       <c r="D65" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>The term 'Estação São Paulinho', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
       </c>
       <c r="E65" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>The term 'Estação São Paulinho' refers to a platform, use 'platform' instead of Estação São Paulinho.</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
         <v>32</v>
       </c>
@@ -3300,18 +3329,18 @@
         <v>61</v>
       </c>
       <c r="D66" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>The term 'São Domingos', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
       </c>
       <c r="E66" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>The term 'São Domingos' refers to a platform, use 'platform' instead of São Domingos.</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
         <v>33</v>
       </c>
@@ -3326,14 +3355,14 @@
         <v>The term 'Ponto de Coleta do SC-3', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
       </c>
       <c r="E67" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>The term 'Ponto de Coleta do SC-3' refers to a platform, use 'platform' instead of Ponto de Coleta do SC-3.</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
         <v>34</v>
       </c>
@@ -3344,18 +3373,18 @@
         <v>61</v>
       </c>
       <c r="D68" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>The term 'Estação Socorro', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
       </c>
       <c r="E68" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>The term 'Estação Socorro' refers to a platform, use 'platform' instead of Estação Socorro.</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
         <v>35</v>
       </c>
@@ -3366,18 +3395,18 @@
         <v>61</v>
       </c>
       <c r="D69" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>The term 'Ponto de Coleta do SVE-1', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
       </c>
       <c r="E69" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>The term 'Ponto de Coleta do SVE-1' refers to a platform, use 'platform' instead of Ponto de Coleta do SVE-1.</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
         <v>36</v>
       </c>
@@ -3388,18 +3417,18 @@
         <v>61</v>
       </c>
       <c r="D70" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>The term 'Estação de Compressores UPGN de Candeias', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
       </c>
       <c r="E70" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>The term 'Estação de Compressores UPGN de Candeias' refers to a platform, use 'platform' instead of Estação de Compressores UPGN de Candeias.</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
         <v>37</v>
       </c>
@@ -3410,18 +3439,18 @@
         <v>61</v>
       </c>
       <c r="D71" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>The term 'UPGN de Candeias', refers to the to the name of the location of a platform, in a platform you can find meters, measurement systems, flow computers, platform clients, storages.</v>
       </c>
       <c r="E71" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>The term 'UPGN de Candeias' refers to a platform, use 'platform' instead of UPGN de Candeias.</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
         <v>128</v>
       </c>
@@ -3436,14 +3465,14 @@
         <v>The term 'crude oil' or similar, commonly refers to a fluid.</v>
       </c>
       <c r="E72" s="2" t="str">
-        <f t="shared" ref="E72" si="13">CONCATENATE("The term '",A72,"' or related can be replaced with 'fluid' instead.")</f>
+        <f t="shared" ref="E72" si="14">CONCATENATE("The term '",A72,"' or related can be replaced with 'fluid' instead.")</f>
         <v>The term 'crude oil' or related can be replaced with 'fluid' instead.</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
         <v>123</v>
       </c>
@@ -3465,7 +3494,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
         <v>124</v>
       </c>
@@ -3476,18 +3505,18 @@
         <v>69</v>
       </c>
       <c r="D74" s="3" t="str">
-        <f t="shared" ref="D74:D77" si="14">CONCATENATE("The term '",A74,"' or similar refers to a measure type for measurement systems.")</f>
+        <f t="shared" ref="D74:D77" si="15">CONCATENATE("The term '",A74,"' or similar refers to a measure type for measurement systems.")</f>
         <v>The term 'Appropriation' or similar refers to a measure type for measurement systems.</v>
       </c>
       <c r="E74" s="2" t="str">
-        <f t="shared" ref="E74:E77" si="15">CONCATENATE("The term '",A74,"' or related refers to a measure type, use 'measure type' instead.")</f>
+        <f t="shared" ref="E74:E77" si="16">CONCATENATE("The term '",A74,"' or related refers to a measure type, use 'measure type' instead.")</f>
         <v>The term 'Appropriation' or related refers to a measure type, use 'measure type' instead.</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
         <v>125</v>
       </c>
@@ -3498,18 +3527,18 @@
         <v>69</v>
       </c>
       <c r="D75" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>The term 'operational' or similar refers to a measure type for measurement systems.</v>
       </c>
       <c r="E75" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>The term 'operational' or related refers to a measure type, use 'measure type' instead.</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
         <v>126</v>
       </c>
@@ -3520,18 +3549,18 @@
         <v>69</v>
       </c>
       <c r="D76" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>The term 'custody' or similar refers to a measure type for measurement systems.</v>
       </c>
       <c r="E76" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>The term 'custody' or related refers to a measure type, use 'measure type' instead.</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
         <v>127</v>
       </c>
@@ -3542,18 +3571,18 @@
         <v>69</v>
       </c>
       <c r="D77" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>The term 'Production Wells' or similar refers to a measure type for measurement systems.</v>
       </c>
       <c r="E77" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>The term 'Production Wells' or related refers to a measure type, use 'measure type' instead.</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
         <v>14</v>
       </c>
@@ -3567,13 +3596,13 @@
         <v>154</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
         <v>107</v>
       </c>
@@ -3613,7 +3642,7 @@
       </c>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
         <v>133</v>
       </c>
@@ -3628,7 +3657,7 @@
         <v>When talking about the term 'EMED...' or similar, it refers to the name/tag of the measurement system.</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F81" s="3"/>
     </row>
@@ -3647,11 +3676,11 @@
         <v>When talking about the term 'EMED...' or similar, it refers to the name of flow computer.</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="15" t="s">
         <v>134</v>
       </c>
@@ -3666,10 +3695,10 @@
         <v>When talking about the term 'EST...' or similar, it refers to the name/tag of the measurement system.</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="15" t="s">
         <v>135</v>
       </c>
@@ -3684,10 +3713,10 @@
         <v>When talking about the term 'EST...' or similar, it refers to the name/tag of the measurement system.</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="15" t="s">
         <v>136</v>
       </c>
@@ -3702,10 +3731,10 @@
         <v>When talking about the term 'EST...' or similar, it refers to the name/tag of the measurement system.</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="15" t="s">
         <v>137</v>
       </c>
@@ -3720,10 +3749,10 @@
         <v>When talking about the term 'FQIT...' or similar, it refers to the name/tag of the measurement system.</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="15" t="s">
         <v>138</v>
       </c>
@@ -3738,10 +3767,10 @@
         <v>When talking about the term 'TANQ...' or similar, it refers to the name/tag of the measurement system.</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="15" t="s">
         <v>139</v>
       </c>
@@ -3756,10 +3785,10 @@
         <v>When talking about the term 'EST...' or similar, it refers to the name/tag of the measurement system.</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="15" t="s">
         <v>140</v>
       </c>
@@ -3774,10 +3803,10 @@
         <v>When talking about the term 'FE-EMED...' or similar, it refers to the name/tag of the measurement system.</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="15" t="s">
         <v>141</v>
       </c>
@@ -3792,10 +3821,10 @@
         <v>When talking about the term 'EST LIBTQ PAL...' or similar, it refers to the name/tag of the measurement system.</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="15" t="s">
         <v>142</v>
       </c>
@@ -3810,10 +3839,10 @@
         <v>When talking about the term 'EST...' or similar, it refers to the name/tag of the measurement system.</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="15" t="s">
         <v>143</v>
       </c>
@@ -3824,11 +3853,11 @@
         <v>62</v>
       </c>
       <c r="D92" s="3" t="str">
-        <f t="shared" ref="D92" si="16">CONCATENATE("When talking about the term 'TANQ...' or similar, it refers to the name/tag of the measurement system.")</f>
+        <f t="shared" ref="D92" si="17">CONCATENATE("When talking about the term 'TANQ...' or similar, it refers to the name/tag of the measurement system.")</f>
         <v>When talking about the term 'TANQ...' or similar, it refers to the name/tag of the measurement system.</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3845,7 +3874,7 @@
         <v>174</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3862,7 +3891,7 @@
         <v>175</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3879,7 +3908,7 @@
         <v>176</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3896,7 +3925,7 @@
         <v>174</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3913,10 +3942,10 @@
         <v>175</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="15" t="s">
         <v>156</v>
       </c>
@@ -3930,13 +3959,13 @@
         <v>177</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="15" t="s">
         <v>160</v>
       </c>
@@ -3950,13 +3979,13 @@
         <v>161</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>181</v>
+        <v>325</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="15" t="s">
         <v>163</v>
       </c>
@@ -3970,13 +3999,13 @@
         <v>165</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="15" t="s">
         <v>162</v>
       </c>
@@ -3990,13 +4019,13 @@
         <v>164</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="15" t="s">
         <v>166</v>
       </c>
@@ -4010,13 +4039,13 @@
         <v>167</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>181</v>
+        <v>327</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="15" t="s">
         <v>121</v>
       </c>
@@ -4030,13 +4059,13 @@
         <v>168</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>181</v>
+        <v>326</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="15" t="s">
         <v>173</v>
       </c>
@@ -4055,10 +4084,10 @@
         <v>The term 'density' or related refers to a variable read in measurement system, replace with 'variable'.</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="15" t="s">
         <v>169</v>
       </c>
@@ -4069,18 +4098,18 @@
         <v>64</v>
       </c>
       <c r="D105" s="1" t="str">
-        <f t="shared" ref="D105:D108" si="17">CONCATENATE("When talking about the term '",A105,"' or similar, this refers to a variable read in the measurement system.")</f>
+        <f t="shared" ref="D105:D108" si="18">CONCATENATE("When talking about the term '",A105,"' or similar, this refers to a variable read in the measurement system.")</f>
         <v>When talking about the term 'differential pressure' or similar, this refers to a variable read in the measurement system.</v>
       </c>
       <c r="E105" s="1" t="str">
-        <f t="shared" ref="E105:E108" si="18">CONCATENATE("The term '",A105,"' or related refers to a variable read in measurement system, replace with 'variable'.")</f>
+        <f t="shared" ref="E105:E113" si="19">CONCATENATE("The term '",A105,"' or related refers to a variable read in measurement system, replace with 'variable'.")</f>
         <v>The term 'differential pressure' or related refers to a variable read in measurement system, replace with 'variable'.</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="15" t="s">
         <v>170</v>
       </c>
@@ -4091,18 +4120,18 @@
         <v>64</v>
       </c>
       <c r="D106" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>When talking about the term 'temperature' or similar, this refers to a variable read in the measurement system.</v>
       </c>
       <c r="E106" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>The term 'temperature' or related refers to a variable read in measurement system, replace with 'variable'.</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="15" t="s">
         <v>171</v>
       </c>
@@ -4113,18 +4142,18 @@
         <v>64</v>
       </c>
       <c r="D107" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>When talking about the term 'static pressure' or similar, this refers to a variable read in the measurement system.</v>
       </c>
       <c r="E107" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>The term 'static pressure' or related refers to a variable read in measurement system, replace with 'variable'.</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="15" t="s">
         <v>172</v>
       </c>
@@ -4135,18 +4164,18 @@
         <v>64</v>
       </c>
       <c r="D108" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>When talking about the term 'viscosity' or similar, this refers to a variable read in the measurement system.</v>
       </c>
       <c r="E108" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>The term 'viscosity' or related refers to a variable read in measurement system, replace with 'variable'.</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="15" t="s">
         <v>173</v>
       </c>
@@ -4157,10 +4186,10 @@
         <v>65</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="15" t="s">
         <v>169</v>
       </c>
@@ -4171,10 +4200,10 @@
         <v>65</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="15" t="s">
         <v>170</v>
       </c>
@@ -4185,10 +4214,10 @@
         <v>65</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="15" t="s">
         <v>171</v>
       </c>
@@ -4199,10 +4228,10 @@
         <v>65</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="15" t="s">
         <v>172</v>
       </c>
@@ -4213,17 +4242,11 @@
         <v>65</v>
       </c>
       <c r="F113" s="10" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F113" xr:uid="{236B0FD0-4DA2-46CE-B290-2BD321B2358A}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="fcs_computadores"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F113" xr:uid="{236B0FD0-4DA2-46CE-B290-2BD321B2358A}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
